--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -666,7 +666,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>47</v>
@@ -695,7 +695,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>47</v>
@@ -724,7 +724,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>47</v>
@@ -753,7 +753,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>47</v>
@@ -782,7 +782,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -811,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>39</v>
@@ -869,7 +869,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>39</v>
@@ -927,7 +927,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -956,7 +956,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -985,7 +985,7 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1043,7 +1043,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>48</v>
@@ -1072,7 +1072,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -1101,7 +1101,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>48</v>
@@ -1130,7 +1130,7 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -1159,7 +1159,7 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -1188,7 +1188,7 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -1275,7 +1275,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>54</v>
@@ -1362,7 +1362,7 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>61</v>
@@ -1391,7 +1391,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>61</v>
@@ -1420,7 +1420,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>61</v>
@@ -1449,7 +1449,7 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>61</v>
@@ -1478,7 +1478,7 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>59</v>
@@ -1507,7 +1507,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>59</v>
@@ -1536,7 +1536,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>59</v>
@@ -1565,7 +1565,7 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>59</v>
@@ -1594,7 +1594,7 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>56</v>
@@ -1623,7 +1623,7 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>56</v>
@@ -1681,7 +1681,7 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>56</v>
@@ -1710,7 +1710,7 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>58</v>
@@ -1739,7 +1739,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>58</v>
@@ -1768,7 +1768,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <v>58</v>
@@ -1797,7 +1797,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41">
         <v>58</v>
@@ -1826,7 +1826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -1855,7 +1855,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -1884,7 +1884,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -1913,7 +1913,7 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -1971,7 +1971,7 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>22</v>
@@ -2029,7 +2029,7 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <v>22</v>
@@ -2058,7 +2058,7 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>28</v>
@@ -2087,7 +2087,7 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>28</v>
@@ -2116,7 +2116,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <v>28</v>
@@ -2145,7 +2145,7 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53">
         <v>28</v>
@@ -2203,7 +2203,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2261,7 +2261,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>49</v>
@@ -2319,7 +2319,7 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>49</v>
@@ -2348,7 +2348,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D60">
         <v>49</v>
@@ -2377,7 +2377,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>49</v>
@@ -2406,7 +2406,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>27</v>
@@ -2435,7 +2435,7 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D63">
         <v>27</v>
@@ -2464,7 +2464,7 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <v>27</v>
@@ -2493,7 +2493,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D65">
         <v>27</v>
@@ -2522,7 +2522,7 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2551,7 +2551,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2609,7 +2609,7 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2638,7 +2638,7 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>17</v>
@@ -2696,7 +2696,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -2725,7 +2725,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73">
         <v>17</v>
@@ -2783,7 +2783,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>19</v>
@@ -2870,7 +2870,7 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>34</v>
@@ -2928,7 +2928,7 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <v>34</v>
@@ -2957,7 +2957,7 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D81">
         <v>34</v>
@@ -2986,7 +2986,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -3015,7 +3015,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83">
         <v>30</v>
@@ -3044,7 +3044,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>30</v>
@@ -3073,7 +3073,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3102,7 +3102,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86">
         <v>50</v>
@@ -3131,7 +3131,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D87">
         <v>50</v>
@@ -3160,7 +3160,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D88">
         <v>50</v>
@@ -3189,7 +3189,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89">
         <v>50</v>
@@ -3218,7 +3218,7 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90">
         <v>10</v>
@@ -3247,7 +3247,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -3276,7 +3276,7 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -3305,7 +3305,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -3363,7 +3363,7 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -3392,7 +3392,7 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -3421,7 +3421,7 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D97">
         <v>60</v>
@@ -3450,7 +3450,7 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>0.7</v>
       </c>
       <c r="C99">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D102">
         <v>51</v>
@@ -3595,7 +3595,7 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D103">
         <v>51</v>
@@ -3624,7 +3624,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D104">
         <v>51</v>
@@ -3653,7 +3653,7 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D105">
         <v>51</v>
@@ -3798,7 +3798,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -3827,7 +3827,7 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -3914,7 +3914,7 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114">
         <v>63</v>
@@ -3943,7 +3943,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D115">
         <v>63</v>
@@ -3972,7 +3972,7 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D116">
         <v>63</v>
@@ -4001,7 +4001,7 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D117">
         <v>63</v>
@@ -4030,7 +4030,7 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D118">
         <v>7</v>
@@ -4059,7 +4059,7 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D119">
         <v>7</v>
@@ -4146,7 +4146,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D122">
         <v>52</v>
@@ -4175,7 +4175,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D123">
         <v>52</v>
@@ -4204,7 +4204,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124">
         <v>52</v>
@@ -4233,7 +4233,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D125">
         <v>52</v>
@@ -4262,7 +4262,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D126">
         <v>16</v>
@@ -4291,7 +4291,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D127">
         <v>16</v>
@@ -4320,7 +4320,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D128">
         <v>16</v>
@@ -4349,7 +4349,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D129">
         <v>16</v>
@@ -4378,7 +4378,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D130">
         <v>46</v>
@@ -4407,7 +4407,7 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D131">
         <v>46</v>
@@ -4436,7 +4436,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D132">
         <v>46</v>
@@ -4465,7 +4465,7 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D133">
         <v>46</v>
@@ -4523,7 +4523,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135">
         <v>55</v>
@@ -4552,7 +4552,7 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136">
         <v>55</v>
@@ -4610,7 +4610,7 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -4639,7 +4639,7 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -4726,7 +4726,7 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -4755,7 +4755,7 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D143">
         <v>45</v>
@@ -4784,7 +4784,7 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D144">
         <v>45</v>
@@ -4813,7 +4813,7 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D145">
         <v>45</v>
@@ -4842,7 +4842,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -4958,7 +4958,7 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D150">
         <v>44</v>
@@ -4987,7 +4987,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D151">
         <v>44</v>
@@ -5016,7 +5016,7 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D152">
         <v>44</v>
@@ -5045,7 +5045,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D153">
         <v>44</v>
@@ -5074,7 +5074,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154">
         <v>38</v>
@@ -5132,7 +5132,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D156">
         <v>38</v>
@@ -5161,7 +5161,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D157">
         <v>38</v>
@@ -5190,7 +5190,7 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158">
         <v>13</v>
@@ -5219,7 +5219,7 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159">
         <v>13</v>
@@ -5248,7 +5248,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D160">
         <v>13</v>
@@ -5306,7 +5306,7 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D162">
         <v>20</v>
@@ -5335,7 +5335,7 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D163">
         <v>20</v>
@@ -5364,7 +5364,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -5451,7 +5451,7 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D167">
         <v>18</v>
@@ -5480,7 +5480,7 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D168">
         <v>18</v>
@@ -5509,7 +5509,7 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D169">
         <v>18</v>
@@ -5567,7 +5567,7 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D171">
         <v>11</v>
@@ -5596,7 +5596,7 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D172">
         <v>11</v>
@@ -5625,7 +5625,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D173">
         <v>11</v>
@@ -5654,7 +5654,7 @@
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D174">
         <v>57</v>
@@ -5683,7 +5683,7 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D175">
         <v>57</v>
@@ -5712,7 +5712,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D176">
         <v>57</v>
@@ -5741,7 +5741,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D177">
         <v>57</v>
@@ -5770,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D178">
         <v>32</v>
@@ -5828,7 +5828,7 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D180">
         <v>32</v>
@@ -5857,7 +5857,7 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D181">
         <v>32</v>
@@ -5915,7 +5915,7 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D183">
         <v>62</v>
@@ -5944,7 +5944,7 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D184">
         <v>62</v>
@@ -6002,7 +6002,7 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D186">
         <v>36</v>
@@ -6031,7 +6031,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187">
         <v>36</v>
@@ -6060,7 +6060,7 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D188">
         <v>36</v>
@@ -6089,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D189">
         <v>36</v>
@@ -6147,7 +6147,7 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D191">
         <v>23</v>
@@ -6176,7 +6176,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D192">
         <v>23</v>
@@ -6205,7 +6205,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D193">
         <v>23</v>
@@ -6234,7 +6234,7 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D194">
         <v>42</v>
@@ -6263,7 +6263,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D195">
         <v>42</v>
@@ -6292,7 +6292,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D196">
         <v>42</v>
@@ -6321,7 +6321,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D197">
         <v>42</v>
@@ -6350,7 +6350,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -6408,7 +6408,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -6437,7 +6437,7 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -6466,7 +6466,7 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D202">
         <v>26</v>
@@ -6524,7 +6524,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D204">
         <v>26</v>
@@ -6553,7 +6553,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D205">
         <v>26</v>
@@ -6582,7 +6582,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D206">
         <v>15</v>
@@ -6611,7 +6611,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D207">
         <v>15</v>
@@ -6640,7 +6640,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D208">
         <v>15</v>
@@ -6669,7 +6669,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D209">
         <v>15</v>
@@ -6698,7 +6698,7 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D210">
         <v>31</v>
@@ -6727,7 +6727,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D211">
         <v>31</v>
@@ -6756,7 +6756,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D212">
         <v>31</v>
@@ -6785,7 +6785,7 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D213">
         <v>31</v>
@@ -6814,7 +6814,7 @@
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D214">
         <v>21</v>
@@ -6843,7 +6843,7 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215">
         <v>21</v>
@@ -6872,7 +6872,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D216">
         <v>21</v>
@@ -6901,7 +6901,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D217">
         <v>21</v>
@@ -6930,7 +6930,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D218">
         <v>53</v>
@@ -6959,7 +6959,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D219">
         <v>53</v>
@@ -6988,7 +6988,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D220">
         <v>53</v>
@@ -7017,7 +7017,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D221">
         <v>53</v>
@@ -7046,7 +7046,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D222">
         <v>8</v>
@@ -7075,7 +7075,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D223">
         <v>8</v>
@@ -7104,7 +7104,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D224">
         <v>8</v>
@@ -7133,7 +7133,7 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D225">
         <v>8</v>
@@ -7162,7 +7162,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D226">
         <v>35</v>
@@ -7191,7 +7191,7 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D227">
         <v>35</v>
@@ -7220,7 +7220,7 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D228">
         <v>35</v>
@@ -7249,7 +7249,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D229">
         <v>35</v>
@@ -7278,7 +7278,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D230">
         <v>43</v>
@@ -7307,7 +7307,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D231">
         <v>43</v>
@@ -7336,7 +7336,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D232">
         <v>43</v>
@@ -7365,7 +7365,7 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D233">
         <v>43</v>

--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -666,7 +666,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>47</v>
@@ -695,7 +695,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>47</v>
@@ -724,7 +724,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>47</v>
@@ -753,7 +753,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>47</v>
@@ -782,7 +782,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -811,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>39</v>
@@ -840,7 +840,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>39</v>
@@ -869,7 +869,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>39</v>
@@ -898,7 +898,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -927,7 +927,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -956,7 +956,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -985,7 +985,7 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>48</v>
@@ -1043,7 +1043,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>48</v>
@@ -1072,7 +1072,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -1101,7 +1101,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>48</v>
@@ -1130,7 +1130,7 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -1159,7 +1159,7 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -1188,7 +1188,7 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -1246,7 +1246,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>54</v>
@@ -1275,7 +1275,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>54</v>
@@ -1304,7 +1304,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>54</v>
@@ -1333,7 +1333,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>54</v>
@@ -1362,7 +1362,7 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>61</v>
@@ -1391,7 +1391,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>61</v>
@@ -1420,7 +1420,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>61</v>
@@ -1449,7 +1449,7 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>61</v>
@@ -1478,7 +1478,7 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>59</v>
@@ -1507,7 +1507,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>59</v>
@@ -1536,7 +1536,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>59</v>
@@ -1565,7 +1565,7 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <v>59</v>
@@ -1594,7 +1594,7 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>56</v>
@@ -1623,7 +1623,7 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>56</v>
@@ -1652,7 +1652,7 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>56</v>
@@ -1681,7 +1681,7 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>56</v>
@@ -1710,7 +1710,7 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>58</v>
@@ -1739,7 +1739,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>58</v>
@@ -1768,7 +1768,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>58</v>
@@ -1797,7 +1797,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>58</v>
@@ -1826,7 +1826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -1855,7 +1855,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -1884,7 +1884,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -1913,7 +1913,7 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -1942,7 +1942,7 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>22</v>
@@ -1971,7 +1971,7 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47">
         <v>22</v>
@@ -2000,7 +2000,7 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>22</v>
@@ -2029,7 +2029,7 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>22</v>
@@ -2058,7 +2058,7 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>28</v>
@@ -2087,7 +2087,7 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <v>28</v>
@@ -2116,7 +2116,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52">
         <v>28</v>
@@ -2145,7 +2145,7 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D53">
         <v>28</v>
@@ -2232,7 +2232,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>49</v>
@@ -2319,7 +2319,7 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>49</v>
@@ -2348,7 +2348,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <v>49</v>
@@ -2377,7 +2377,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>49</v>
@@ -2406,7 +2406,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D62">
         <v>27</v>
@@ -2435,7 +2435,7 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <v>27</v>
@@ -2493,7 +2493,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D65">
         <v>27</v>
@@ -2522,7 +2522,7 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2551,7 +2551,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2609,7 +2609,7 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2638,7 +2638,7 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D71">
         <v>17</v>
@@ -2696,7 +2696,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -2725,7 +2725,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>17</v>
@@ -2754,7 +2754,7 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -2783,7 +2783,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D75">
         <v>19</v>
@@ -2812,7 +2812,7 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76">
         <v>19</v>
@@ -2870,7 +2870,7 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78">
         <v>34</v>
@@ -2986,7 +2986,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -3015,7 +3015,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83">
         <v>30</v>
@@ -3044,7 +3044,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D84">
         <v>30</v>
@@ -3073,7 +3073,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3102,7 +3102,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86">
         <v>50</v>
@@ -3131,7 +3131,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>50</v>
@@ -3160,7 +3160,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D88">
         <v>50</v>
@@ -3189,7 +3189,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D89">
         <v>50</v>
@@ -3218,7 +3218,7 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90">
         <v>10</v>
@@ -3247,7 +3247,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -3276,7 +3276,7 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -3305,7 +3305,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -3334,7 +3334,7 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>60</v>
@@ -3363,7 +3363,7 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -3392,7 +3392,7 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -3421,7 +3421,7 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D97">
         <v>60</v>
@@ -3450,7 +3450,7 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D102">
         <v>51</v>
@@ -3595,7 +3595,7 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D103">
         <v>51</v>
@@ -3624,7 +3624,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D104">
         <v>51</v>
@@ -3653,7 +3653,7 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D105">
         <v>51</v>
@@ -3711,7 +3711,7 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>9</v>
@@ -3769,7 +3769,7 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D109">
         <v>9</v>
@@ -3798,7 +3798,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -3827,7 +3827,7 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -3856,7 +3856,7 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -3914,7 +3914,7 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114">
         <v>63</v>
@@ -3943,7 +3943,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D115">
         <v>63</v>
@@ -3972,7 +3972,7 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116">
         <v>63</v>
@@ -4001,7 +4001,7 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D117">
         <v>63</v>
@@ -4030,7 +4030,7 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D118">
         <v>7</v>
@@ -4059,7 +4059,7 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D119">
         <v>7</v>
@@ -4088,7 +4088,7 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D120">
         <v>7</v>
@@ -4117,7 +4117,7 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D121">
         <v>7</v>
@@ -4146,7 +4146,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D122">
         <v>52</v>
@@ -4175,7 +4175,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D123">
         <v>52</v>
@@ -4204,7 +4204,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D124">
         <v>52</v>
@@ -4233,7 +4233,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D125">
         <v>52</v>
@@ -4262,7 +4262,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D126">
         <v>16</v>
@@ -4291,7 +4291,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D127">
         <v>16</v>
@@ -4320,7 +4320,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D128">
         <v>16</v>
@@ -4349,7 +4349,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D129">
         <v>16</v>
@@ -4378,7 +4378,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D130">
         <v>46</v>
@@ -4407,7 +4407,7 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D131">
         <v>46</v>
@@ -4436,7 +4436,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D132">
         <v>46</v>
@@ -4465,7 +4465,7 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D133">
         <v>46</v>
@@ -4523,7 +4523,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>55</v>
@@ -4552,7 +4552,7 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D136">
         <v>55</v>
@@ -4581,7 +4581,7 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D137">
         <v>55</v>
@@ -4610,7 +4610,7 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -4639,7 +4639,7 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -4668,7 +4668,7 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -4697,7 +4697,7 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -4842,7 +4842,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -4871,7 +4871,7 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -4900,7 +4900,7 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -4929,7 +4929,7 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -4958,7 +4958,7 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D150">
         <v>44</v>
@@ -4987,7 +4987,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D151">
         <v>44</v>
@@ -5016,7 +5016,7 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D152">
         <v>44</v>
@@ -5045,7 +5045,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D153">
         <v>44</v>
@@ -5074,7 +5074,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D154">
         <v>38</v>
@@ -5103,7 +5103,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155">
         <v>38</v>
@@ -5132,7 +5132,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D156">
         <v>38</v>
@@ -5161,7 +5161,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D157">
         <v>38</v>
@@ -5190,7 +5190,7 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>13</v>
@@ -5219,7 +5219,7 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D159">
         <v>13</v>
@@ -5248,7 +5248,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D160">
         <v>13</v>
@@ -5277,7 +5277,7 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D161">
         <v>13</v>
@@ -5306,7 +5306,7 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D162">
         <v>20</v>
@@ -5335,7 +5335,7 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D163">
         <v>20</v>
@@ -5364,7 +5364,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -5393,7 +5393,7 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D165">
         <v>20</v>
@@ -5422,7 +5422,7 @@
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>18</v>
@@ -5451,7 +5451,7 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D167">
         <v>18</v>
@@ -5480,7 +5480,7 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D168">
         <v>18</v>
@@ -5509,7 +5509,7 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D169">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         <v>0.5</v>
       </c>
       <c r="C170">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D170">
         <v>11</v>
@@ -5567,7 +5567,7 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D171">
         <v>11</v>
@@ -5596,7 +5596,7 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D172">
         <v>11</v>
@@ -5625,7 +5625,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D173">
         <v>11</v>
@@ -5654,7 +5654,7 @@
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D174">
         <v>57</v>
@@ -5683,7 +5683,7 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D175">
         <v>57</v>
@@ -5712,7 +5712,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D176">
         <v>57</v>
@@ -5741,7 +5741,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D177">
         <v>57</v>
@@ -5770,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D178">
         <v>32</v>
@@ -5828,7 +5828,7 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D180">
         <v>32</v>
@@ -5857,7 +5857,7 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D181">
         <v>32</v>
@@ -5886,7 +5886,7 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D182">
         <v>62</v>
@@ -5915,7 +5915,7 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D183">
         <v>62</v>
@@ -5944,7 +5944,7 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D184">
         <v>62</v>
@@ -5973,7 +5973,7 @@
         <v>0.9</v>
       </c>
       <c r="C185">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D185">
         <v>62</v>
@@ -6002,7 +6002,7 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D186">
         <v>36</v>
@@ -6031,7 +6031,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D187">
         <v>36</v>
@@ -6060,7 +6060,7 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D188">
         <v>36</v>
@@ -6089,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D189">
         <v>36</v>
@@ -6118,7 +6118,7 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D190">
         <v>23</v>
@@ -6147,7 +6147,7 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D191">
         <v>23</v>
@@ -6176,7 +6176,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D192">
         <v>23</v>
@@ -6205,7 +6205,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D193">
         <v>23</v>
@@ -6234,7 +6234,7 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D194">
         <v>42</v>
@@ -6263,7 +6263,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D195">
         <v>42</v>
@@ -6292,7 +6292,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D196">
         <v>42</v>
@@ -6321,7 +6321,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D197">
         <v>42</v>
@@ -6350,7 +6350,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -6408,7 +6408,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -6437,7 +6437,7 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -6466,7 +6466,7 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D202">
         <v>26</v>
@@ -6495,7 +6495,7 @@
         <v>0.7</v>
       </c>
       <c r="C203">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D203">
         <v>26</v>
@@ -6524,7 +6524,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D204">
         <v>26</v>
@@ -6553,7 +6553,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D205">
         <v>26</v>
@@ -6582,7 +6582,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D206">
         <v>15</v>
@@ -6611,7 +6611,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D207">
         <v>15</v>
@@ -6640,7 +6640,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D208">
         <v>15</v>
@@ -6669,7 +6669,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D209">
         <v>15</v>
@@ -6698,7 +6698,7 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D210">
         <v>31</v>
@@ -6727,7 +6727,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D211">
         <v>31</v>
@@ -6756,7 +6756,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D212">
         <v>31</v>
@@ -6785,7 +6785,7 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D213">
         <v>31</v>
@@ -6814,7 +6814,7 @@
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D214">
         <v>21</v>
@@ -6843,7 +6843,7 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D215">
         <v>21</v>
@@ -6872,7 +6872,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D216">
         <v>21</v>
@@ -6901,7 +6901,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D217">
         <v>21</v>
@@ -7046,7 +7046,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D222">
         <v>8</v>
@@ -7075,7 +7075,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D223">
         <v>8</v>
@@ -7104,7 +7104,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D224">
         <v>8</v>
@@ -7133,7 +7133,7 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D225">
         <v>8</v>
@@ -7162,7 +7162,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D226">
         <v>35</v>
@@ -7191,7 +7191,7 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D227">
         <v>35</v>
@@ -7220,7 +7220,7 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D228">
         <v>35</v>
@@ -7249,7 +7249,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D229">
         <v>35</v>
@@ -7278,7 +7278,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D230">
         <v>43</v>
@@ -7307,7 +7307,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D231">
         <v>43</v>
@@ -7336,7 +7336,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D232">
         <v>43</v>

--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="142">
   <si>
     <t>File_Name</t>
   </si>
@@ -215,6 +215,180 @@
   </si>
   <si>
     <t>43_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -666,25 +840,25 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>42</v>
-      </c>
-      <c r="D2">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -695,25 +869,25 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -724,25 +898,25 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
       </c>
       <c r="E4">
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -753,25 +927,25 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -782,25 +956,25 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
       </c>
       <c r="E6">
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -811,25 +985,25 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
       </c>
       <c r="E7">
         <v>600</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -840,25 +1014,25 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>77</v>
-      </c>
-      <c r="D8">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
       </c>
       <c r="E8">
         <v>600</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -869,25 +1043,25 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>88</v>
-      </c>
-      <c r="D9">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
       </c>
       <c r="E9">
         <v>600</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -898,25 +1072,25 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
       </c>
       <c r="E10">
         <v>700</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -927,25 +1101,25 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="E11">
         <v>700</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -956,25 +1130,25 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>63</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
       </c>
       <c r="E12">
         <v>700</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -985,25 +1159,25 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>75</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="E13">
         <v>700</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1014,25 +1188,25 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
       </c>
       <c r="E14">
         <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1043,25 +1217,25 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
       <c r="E15">
         <v>900</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1072,25 +1246,25 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
       </c>
       <c r="E16">
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1101,25 +1275,25 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>86</v>
-      </c>
-      <c r="D17">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
       </c>
       <c r="E17">
         <v>900</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1130,25 +1304,25 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
       </c>
       <c r="E18">
         <v>600</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1159,25 +1333,25 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>38</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
       </c>
       <c r="E19">
         <v>600</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1188,25 +1362,25 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>67</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
       </c>
       <c r="E20">
         <v>600</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1217,25 +1391,25 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>81</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
       </c>
       <c r="E21">
         <v>600</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1246,25 +1420,25 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
       </c>
       <c r="E22">
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1275,25 +1449,25 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
       </c>
       <c r="E23">
         <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1304,25 +1478,25 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
       </c>
       <c r="E24">
         <v>900</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1333,25 +1507,25 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
       </c>
       <c r="E25">
         <v>900</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1362,25 +1536,25 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
       </c>
       <c r="E26">
         <v>700</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1391,25 +1565,25 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
       </c>
       <c r="E27">
         <v>700</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1420,25 +1594,25 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
       </c>
       <c r="E28">
         <v>700</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1449,25 +1623,25 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>57</v>
-      </c>
-      <c r="D29">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
       </c>
       <c r="E29">
         <v>700</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1478,25 +1652,25 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
       </c>
       <c r="E30">
         <v>900</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1507,25 +1681,25 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
       </c>
       <c r="E31">
         <v>900</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1536,25 +1710,25 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
       </c>
       <c r="E32">
         <v>900</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1565,25 +1739,25 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>65</v>
-      </c>
-      <c r="D33">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
       </c>
       <c r="E33">
         <v>900</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1594,25 +1768,25 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
       </c>
       <c r="E34">
         <v>700</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1623,25 +1797,25 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
       </c>
       <c r="E35">
         <v>700</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1652,25 +1826,25 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
       </c>
       <c r="E36">
         <v>700</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1681,25 +1855,25 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>72</v>
-      </c>
-      <c r="D37">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
       </c>
       <c r="E37">
         <v>700</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1710,25 +1884,25 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
       </c>
       <c r="E38">
         <v>500</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1739,25 +1913,25 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>31</v>
-      </c>
-      <c r="D39">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
       </c>
       <c r="E39">
         <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1768,25 +1942,25 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>51</v>
-      </c>
-      <c r="D40">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
       </c>
       <c r="E40">
         <v>500</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1797,25 +1971,25 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>74</v>
-      </c>
-      <c r="D41">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
       </c>
       <c r="E41">
         <v>500</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1826,25 +2000,25 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
       </c>
       <c r="E42">
         <v>800</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1855,25 +2029,25 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>57</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
       </c>
       <c r="E43">
         <v>800</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1884,25 +2058,25 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>72</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
       </c>
       <c r="E44">
         <v>800</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1913,25 +2087,25 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>97</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
       </c>
       <c r="E45">
         <v>800</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1942,25 +2116,25 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
       </c>
       <c r="E46">
         <v>500</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1971,25 +2145,25 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>46</v>
-      </c>
-      <c r="D47">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
       </c>
       <c r="E47">
         <v>500</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2000,25 +2174,25 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
       </c>
       <c r="E48">
         <v>500</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2029,25 +2203,25 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>79</v>
-      </c>
-      <c r="D49">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
       </c>
       <c r="E49">
         <v>500</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2058,25 +2232,25 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>29</v>
-      </c>
-      <c r="D50">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
       </c>
       <c r="E50">
         <v>900</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2087,25 +2261,25 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>65</v>
-      </c>
-      <c r="D51">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
       </c>
       <c r="E51">
         <v>900</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2116,25 +2290,25 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>75</v>
-      </c>
-      <c r="D52">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
       </c>
       <c r="E52">
         <v>900</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2145,25 +2319,25 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>84</v>
-      </c>
-      <c r="D53">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
       </c>
       <c r="E53">
         <v>900</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2174,25 +2348,25 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>47</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
       </c>
       <c r="E54">
         <v>900</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2203,25 +2377,25 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>58</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
       </c>
       <c r="E55">
         <v>900</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2232,25 +2406,25 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>94</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
       </c>
       <c r="E56">
         <v>900</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2261,25 +2435,25 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>121</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
       </c>
       <c r="E57">
         <v>900</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2290,25 +2464,25 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>43</v>
-      </c>
-      <c r="D58">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
       </c>
       <c r="E58">
         <v>850</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2319,25 +2493,25 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
       </c>
       <c r="E59">
         <v>850</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2348,25 +2522,25 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>67</v>
-      </c>
-      <c r="D60">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
       </c>
       <c r="E60">
         <v>850</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2377,25 +2551,25 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>90</v>
-      </c>
-      <c r="D61">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
       </c>
       <c r="E61">
         <v>850</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2406,25 +2580,25 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
       </c>
       <c r="E62">
         <v>900</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2435,25 +2609,25 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>69</v>
-      </c>
-      <c r="D63">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
       </c>
       <c r="E63">
         <v>900</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2464,25 +2638,25 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>77</v>
-      </c>
-      <c r="D64">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
       </c>
       <c r="E64">
         <v>900</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2493,25 +2667,25 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>101</v>
-      </c>
-      <c r="D65">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
       </c>
       <c r="E65">
         <v>900</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I65" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2522,25 +2696,25 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>18</v>
-      </c>
-      <c r="D66">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>83</v>
       </c>
       <c r="E66">
         <v>500</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2551,25 +2725,25 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>58</v>
-      </c>
-      <c r="D67">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>83</v>
       </c>
       <c r="E67">
         <v>500</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2580,25 +2754,25 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>68</v>
-      </c>
-      <c r="D68">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
       </c>
       <c r="E68">
         <v>500</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G68" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2609,25 +2783,25 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>85</v>
-      </c>
-      <c r="D69">
-        <v>24</v>
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
       </c>
       <c r="E69">
         <v>500</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I69" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2638,25 +2812,25 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>14</v>
-      </c>
-      <c r="D70">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
       </c>
       <c r="E70">
         <v>600</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I70" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2667,25 +2841,25 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>28</v>
-      </c>
-      <c r="D71">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
       </c>
       <c r="E71">
         <v>600</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2696,25 +2870,25 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>46</v>
-      </c>
-      <c r="D72">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
       </c>
       <c r="E72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2725,25 +2899,25 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>80</v>
-      </c>
-      <c r="D73">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
       </c>
       <c r="E73">
         <v>600</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H73" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I73" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2754,25 +2928,25 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>55</v>
-      </c>
-      <c r="D74">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
       </c>
       <c r="E74">
         <v>600</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I74" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2783,25 +2957,25 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>67</v>
-      </c>
-      <c r="D75">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
       </c>
       <c r="E75">
         <v>600</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H75" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I75" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2812,25 +2986,25 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>82</v>
-      </c>
-      <c r="D76">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
       </c>
       <c r="E76">
         <v>600</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H76" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I76" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2841,25 +3015,25 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>122</v>
-      </c>
-      <c r="D77">
-        <v>19</v>
+        <v>120</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
       </c>
       <c r="E77">
         <v>600</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G77" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H77" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I77" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2870,25 +3044,25 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>18</v>
-      </c>
-      <c r="D78">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
       </c>
       <c r="E78">
         <v>700</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2899,25 +3073,25 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>26</v>
-      </c>
-      <c r="D79">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
       </c>
       <c r="E79">
         <v>700</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I79" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2928,25 +3102,25 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>56</v>
-      </c>
-      <c r="D80">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
       </c>
       <c r="E80">
         <v>700</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H80" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I80" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2957,25 +3131,25 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>78</v>
-      </c>
-      <c r="D81">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
       </c>
       <c r="E81">
         <v>700</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H81" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I81" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2986,25 +3160,25 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
       </c>
       <c r="E82">
         <v>800</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H82" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I82" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3015,25 +3189,25 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>46</v>
-      </c>
-      <c r="D83">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
       </c>
       <c r="E83">
         <v>800</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3044,25 +3218,25 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>63</v>
-      </c>
-      <c r="D84">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
       </c>
       <c r="E84">
         <v>800</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G84" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3073,25 +3247,25 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>77</v>
-      </c>
-      <c r="D85">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
       </c>
       <c r="E85">
         <v>800</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H85" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I85" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3102,25 +3276,25 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>36</v>
-      </c>
-      <c r="D86">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
       </c>
       <c r="E86">
         <v>800</v>
       </c>
       <c r="F86" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I86" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3131,25 +3305,25 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>56</v>
-      </c>
-      <c r="D87">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
       </c>
       <c r="E87">
         <v>800</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G87" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H87" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I87" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3160,25 +3334,25 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>66</v>
-      </c>
-      <c r="D88">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
       </c>
       <c r="E88">
         <v>800</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I88" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3189,25 +3363,25 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>83</v>
-      </c>
-      <c r="D89">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>88</v>
       </c>
       <c r="E89">
         <v>800</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I89" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3218,25 +3392,25 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>42</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
       </c>
       <c r="E90">
         <v>800</v>
       </c>
       <c r="F90" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H90" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3247,25 +3421,25 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>53</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
       </c>
       <c r="E91">
         <v>800</v>
       </c>
       <c r="F91" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I91" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3276,25 +3450,25 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>62</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
       </c>
       <c r="E92">
         <v>800</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I92" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3305,25 +3479,25 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>77</v>
-      </c>
-      <c r="D93">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
       </c>
       <c r="E93">
         <v>800</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I93" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3334,25 +3508,25 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>19</v>
-      </c>
-      <c r="D94">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
       </c>
       <c r="E94">
         <v>800</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H94" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I94" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3363,25 +3537,25 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>27</v>
-      </c>
-      <c r="D95">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>90</v>
       </c>
       <c r="E95">
         <v>800</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I95" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3392,25 +3566,25 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>44</v>
-      </c>
-      <c r="D96">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
       </c>
       <c r="E96">
         <v>800</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H96" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I96" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3421,25 +3595,25 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>67</v>
-      </c>
-      <c r="D97">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="D97" t="s">
+        <v>90</v>
       </c>
       <c r="E97">
         <v>800</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H97" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I97" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3450,25 +3624,25 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>18</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
       </c>
       <c r="E98">
         <v>900</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3479,25 +3653,25 @@
         <v>0.7</v>
       </c>
       <c r="C99">
-        <v>44</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
+        <v>91</v>
       </c>
       <c r="E99">
         <v>900</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H99" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I99" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3508,25 +3682,25 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>65</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
       </c>
       <c r="E100">
         <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G100" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I100" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3537,25 +3711,25 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>78</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
       </c>
       <c r="E101">
         <v>900</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H101" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I101" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3566,25 +3740,25 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>39</v>
-      </c>
-      <c r="D102">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D102" t="s">
+        <v>92</v>
       </c>
       <c r="E102">
         <v>700</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H102" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I102" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3595,25 +3769,25 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>57</v>
-      </c>
-      <c r="D103">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="D103" t="s">
+        <v>92</v>
       </c>
       <c r="E103">
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I103" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3624,25 +3798,25 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>64</v>
-      </c>
-      <c r="D104">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
       </c>
       <c r="E104">
         <v>700</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H104" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I104" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3653,25 +3827,25 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>91</v>
-      </c>
-      <c r="D105">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>92</v>
       </c>
       <c r="E105">
         <v>700</v>
       </c>
       <c r="F105" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H105" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3682,25 +3856,25 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>18</v>
-      </c>
-      <c r="D106">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>93</v>
       </c>
       <c r="E106">
         <v>800</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H106" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3711,25 +3885,25 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>45</v>
-      </c>
-      <c r="D107">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>93</v>
       </c>
       <c r="E107">
         <v>800</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H107" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I107" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3740,25 +3914,25 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>67</v>
-      </c>
-      <c r="D108">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>93</v>
       </c>
       <c r="E108">
         <v>800</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H108" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I108" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3769,25 +3943,25 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>79</v>
-      </c>
-      <c r="D109">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="D109" t="s">
+        <v>93</v>
       </c>
       <c r="E109">
         <v>800</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H109" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I109" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3798,25 +3972,25 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>21</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>94</v>
       </c>
       <c r="E110">
         <v>850</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H110" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I110" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3827,25 +4001,25 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>47</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>94</v>
       </c>
       <c r="E111">
         <v>850</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H111" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I111" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3856,25 +4030,25 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>69</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="D112" t="s">
+        <v>94</v>
       </c>
       <c r="E112">
         <v>850</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H112" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3885,25 +4059,25 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>79</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="D113" t="s">
+        <v>94</v>
       </c>
       <c r="E113">
         <v>850</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H113" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I113" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3914,25 +4088,25 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="D114">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>95</v>
       </c>
       <c r="E114">
         <v>500</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G114" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H114" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I114" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3943,25 +4117,25 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>27</v>
-      </c>
-      <c r="D115">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>95</v>
       </c>
       <c r="E115">
         <v>500</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H115" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I115" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3972,25 +4146,25 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>41</v>
-      </c>
-      <c r="D116">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>95</v>
       </c>
       <c r="E116">
         <v>500</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H116" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I116" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4001,25 +4175,25 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>70</v>
-      </c>
-      <c r="D117">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>95</v>
       </c>
       <c r="E117">
         <v>500</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G117" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I117" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4030,25 +4204,25 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>48</v>
-      </c>
-      <c r="D118">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>96</v>
       </c>
       <c r="E118">
         <v>850</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G118" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I118" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4059,25 +4233,25 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>60</v>
-      </c>
-      <c r="D119">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
+        <v>96</v>
       </c>
       <c r="E119">
         <v>850</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H119" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I119" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4088,25 +4262,25 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>77</v>
-      </c>
-      <c r="D120">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="D120" t="s">
+        <v>96</v>
       </c>
       <c r="E120">
         <v>850</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H120" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I120" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4117,25 +4291,25 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>115</v>
-      </c>
-      <c r="D121">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="D121" t="s">
+        <v>96</v>
       </c>
       <c r="E121">
         <v>850</v>
       </c>
       <c r="F121" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H121" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I121" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4146,25 +4320,25 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>57</v>
-      </c>
-      <c r="D122">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>97</v>
       </c>
       <c r="E122">
         <v>600</v>
       </c>
       <c r="F122" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H122" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I122" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4175,25 +4349,25 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>94</v>
-      </c>
-      <c r="D123">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="D123" t="s">
+        <v>97</v>
       </c>
       <c r="E123">
         <v>600</v>
       </c>
       <c r="F123" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H123" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4204,25 +4378,25 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>113</v>
-      </c>
-      <c r="D124">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="D124" t="s">
+        <v>97</v>
       </c>
       <c r="E124">
         <v>600</v>
       </c>
       <c r="F124" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G124" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H124" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4233,25 +4407,25 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>131</v>
-      </c>
-      <c r="D125">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>97</v>
       </c>
       <c r="E125">
         <v>600</v>
       </c>
       <c r="F125" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G125" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H125" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I125" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4262,25 +4436,25 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>38</v>
-      </c>
-      <c r="D126">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="D126" t="s">
+        <v>98</v>
       </c>
       <c r="E126">
         <v>700</v>
       </c>
       <c r="F126" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G126" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H126" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I126" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4291,25 +4465,25 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>59</v>
-      </c>
-      <c r="D127">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>98</v>
       </c>
       <c r="E127">
         <v>700</v>
       </c>
       <c r="F127" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H127" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I127" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4320,25 +4494,25 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>78</v>
-      </c>
-      <c r="D128">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="D128" t="s">
+        <v>98</v>
       </c>
       <c r="E128">
         <v>700</v>
       </c>
       <c r="F128" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G128" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H128" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I128" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4349,25 +4523,25 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>104</v>
-      </c>
-      <c r="D129">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>98</v>
       </c>
       <c r="E129">
         <v>700</v>
       </c>
       <c r="F129" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G129" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H129" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I129" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4378,25 +4552,25 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>39</v>
-      </c>
-      <c r="D130">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>99</v>
       </c>
       <c r="E130">
         <v>600</v>
       </c>
       <c r="F130" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I130" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4407,25 +4581,25 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>58</v>
-      </c>
-      <c r="D131">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="D131" t="s">
+        <v>99</v>
       </c>
       <c r="E131">
         <v>600</v>
       </c>
       <c r="F131" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G131" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H131" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I131" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4436,25 +4610,25 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>65</v>
-      </c>
-      <c r="D132">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>99</v>
       </c>
       <c r="E132">
         <v>600</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H132" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4465,25 +4639,25 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>77</v>
-      </c>
-      <c r="D133">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>99</v>
       </c>
       <c r="E133">
         <v>600</v>
       </c>
       <c r="F133" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H133" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4494,25 +4668,25 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>17</v>
-      </c>
-      <c r="D134">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>100</v>
       </c>
       <c r="E134">
         <v>800</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I134" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4523,25 +4697,25 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>30</v>
-      </c>
-      <c r="D135">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>100</v>
       </c>
       <c r="E135">
         <v>800</v>
       </c>
       <c r="F135" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G135" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H135" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I135" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4552,25 +4726,25 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>38</v>
-      </c>
-      <c r="D136">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>100</v>
       </c>
       <c r="E136">
         <v>800</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G136" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H136" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I136" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4581,25 +4755,25 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>57</v>
-      </c>
-      <c r="D137">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D137" t="s">
+        <v>100</v>
       </c>
       <c r="E137">
         <v>800</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G137" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H137" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I137" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4610,25 +4784,25 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>43</v>
-      </c>
-      <c r="D138">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>101</v>
       </c>
       <c r="E138">
         <v>850</v>
       </c>
       <c r="F138" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H138" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4639,25 +4813,25 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>55</v>
-      </c>
-      <c r="D139">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D139" t="s">
+        <v>101</v>
       </c>
       <c r="E139">
         <v>850</v>
       </c>
       <c r="F139" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G139" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H139" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I139" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4668,25 +4842,25 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>65</v>
-      </c>
-      <c r="D140">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>101</v>
       </c>
       <c r="E140">
         <v>850</v>
       </c>
       <c r="F140" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G140" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H140" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4697,25 +4871,25 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>83</v>
-      </c>
-      <c r="D141">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D141" t="s">
+        <v>101</v>
       </c>
       <c r="E141">
         <v>850</v>
       </c>
       <c r="F141" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G141" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H141" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4726,25 +4900,25 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>49</v>
-      </c>
-      <c r="D142">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>102</v>
       </c>
       <c r="E142">
         <v>700</v>
       </c>
       <c r="F142" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G142" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H142" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4755,25 +4929,25 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>63</v>
-      </c>
-      <c r="D143">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>102</v>
       </c>
       <c r="E143">
         <v>700</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G143" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H143" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4784,25 +4958,25 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>78</v>
-      </c>
-      <c r="D144">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="D144" t="s">
+        <v>102</v>
       </c>
       <c r="E144">
         <v>700</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H144" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I144" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4813,25 +4987,25 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>113</v>
-      </c>
-      <c r="D145">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="D145" t="s">
+        <v>102</v>
       </c>
       <c r="E145">
         <v>700</v>
       </c>
       <c r="F145" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G145" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H145" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I145" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4842,25 +5016,25 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>44</v>
-      </c>
-      <c r="D146">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D146" t="s">
+        <v>103</v>
       </c>
       <c r="E146">
         <v>900</v>
       </c>
       <c r="F146" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G146" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H146" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I146" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4871,25 +5045,25 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>63</v>
-      </c>
-      <c r="D147">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
       </c>
       <c r="E147">
         <v>900</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G147" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H147" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I147" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4900,25 +5074,25 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>71</v>
-      </c>
-      <c r="D148">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="D148" t="s">
+        <v>103</v>
       </c>
       <c r="E148">
         <v>900</v>
       </c>
       <c r="F148" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G148" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H148" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I148" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4929,25 +5103,25 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>96</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="D149" t="s">
+        <v>103</v>
       </c>
       <c r="E149">
         <v>900</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G149" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I149" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4958,25 +5132,25 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>49</v>
-      </c>
-      <c r="D150">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D150" t="s">
+        <v>104</v>
       </c>
       <c r="E150">
         <v>800</v>
       </c>
       <c r="F150" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G150" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H150" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I150" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4987,25 +5161,25 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>61</v>
-      </c>
-      <c r="D151">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="D151" t="s">
+        <v>104</v>
       </c>
       <c r="E151">
         <v>800</v>
       </c>
       <c r="F151" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G151" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H151" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I151" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5016,25 +5190,25 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>76</v>
-      </c>
-      <c r="D152">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="D152" t="s">
+        <v>104</v>
       </c>
       <c r="E152">
         <v>800</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H152" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I152" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5045,25 +5219,25 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>114</v>
-      </c>
-      <c r="D153">
-        <v>44</v>
+        <v>112</v>
+      </c>
+      <c r="D153" t="s">
+        <v>104</v>
       </c>
       <c r="E153">
         <v>800</v>
       </c>
       <c r="F153" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H153" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I153" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5074,25 +5248,25 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>19</v>
-      </c>
-      <c r="D154">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>105</v>
       </c>
       <c r="E154">
         <v>600</v>
       </c>
       <c r="F154" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G154" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H154" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I154" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5103,25 +5277,25 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>29</v>
-      </c>
-      <c r="D155">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D155" t="s">
+        <v>105</v>
       </c>
       <c r="E155">
         <v>600</v>
       </c>
       <c r="F155" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G155" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I155" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5132,25 +5306,25 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>65</v>
-      </c>
-      <c r="D156">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="D156" t="s">
+        <v>105</v>
       </c>
       <c r="E156">
         <v>600</v>
       </c>
       <c r="F156" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G156" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H156" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I156" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5161,25 +5335,25 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>78</v>
-      </c>
-      <c r="D157">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="D157" t="s">
+        <v>105</v>
       </c>
       <c r="E157">
         <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G157" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H157" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I157" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5190,25 +5364,25 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>20</v>
-      </c>
-      <c r="D158">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>106</v>
       </c>
       <c r="E158">
         <v>700</v>
       </c>
       <c r="F158" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H158" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I158" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5219,25 +5393,25 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>45</v>
-      </c>
-      <c r="D159">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="D159" t="s">
+        <v>106</v>
       </c>
       <c r="E159">
         <v>700</v>
       </c>
       <c r="F159" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G159" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H159" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I159" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5248,25 +5422,25 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>68</v>
-      </c>
-      <c r="D160">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="D160" t="s">
+        <v>106</v>
       </c>
       <c r="E160">
         <v>700</v>
       </c>
       <c r="F160" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H160" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I160" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5277,25 +5451,25 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>75</v>
-      </c>
-      <c r="D161">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="D161" t="s">
+        <v>106</v>
       </c>
       <c r="E161">
         <v>700</v>
       </c>
       <c r="F161" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G161" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H161" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I161" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5306,25 +5480,25 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>42</v>
-      </c>
-      <c r="D162">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D162" t="s">
+        <v>107</v>
       </c>
       <c r="E162">
         <v>600</v>
       </c>
       <c r="F162" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G162" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H162" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I162" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5335,25 +5509,25 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>60</v>
-      </c>
-      <c r="D163">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="D163" t="s">
+        <v>107</v>
       </c>
       <c r="E163">
         <v>600</v>
       </c>
       <c r="F163" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G163" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H163" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I163" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5364,25 +5538,25 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>72</v>
-      </c>
-      <c r="D164">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D164" t="s">
+        <v>107</v>
       </c>
       <c r="E164">
         <v>600</v>
       </c>
       <c r="F164" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G164" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H164" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I164" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5393,25 +5567,25 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>83</v>
-      </c>
-      <c r="D165">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="D165" t="s">
+        <v>107</v>
       </c>
       <c r="E165">
         <v>600</v>
       </c>
       <c r="F165" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G165" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H165" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I165" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5422,25 +5596,25 @@
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>26</v>
-      </c>
-      <c r="D166">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D166" t="s">
+        <v>108</v>
       </c>
       <c r="E166">
         <v>600</v>
       </c>
       <c r="F166" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G166" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H166" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I166" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5451,25 +5625,25 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>54</v>
-      </c>
-      <c r="D167">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="D167" t="s">
+        <v>108</v>
       </c>
       <c r="E167">
         <v>600</v>
       </c>
       <c r="F167" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G167" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H167" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I167" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5480,25 +5654,25 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>63</v>
-      </c>
-      <c r="D168">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="D168" t="s">
+        <v>108</v>
       </c>
       <c r="E168">
         <v>600</v>
       </c>
       <c r="F168" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G168" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H168" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I168" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5509,25 +5683,25 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>76</v>
-      </c>
-      <c r="D169">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="D169" t="s">
+        <v>108</v>
       </c>
       <c r="E169">
         <v>600</v>
       </c>
       <c r="F169" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G169" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H169" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I169" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5538,25 +5712,25 @@
         <v>0.5</v>
       </c>
       <c r="C170">
-        <v>50</v>
-      </c>
-      <c r="D170">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="D170" t="s">
+        <v>109</v>
       </c>
       <c r="E170">
         <v>800</v>
       </c>
       <c r="F170" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G170" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H170" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I170" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5567,25 +5741,25 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>61</v>
-      </c>
-      <c r="D171">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="D171" t="s">
+        <v>109</v>
       </c>
       <c r="E171">
         <v>800</v>
       </c>
       <c r="F171" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G171" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H171" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I171" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5596,25 +5770,25 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>77</v>
-      </c>
-      <c r="D172">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="D172" t="s">
+        <v>109</v>
       </c>
       <c r="E172">
         <v>800</v>
       </c>
       <c r="F172" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G172" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H172" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I172" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5625,25 +5799,25 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>111</v>
-      </c>
-      <c r="D173">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="D173" t="s">
+        <v>109</v>
       </c>
       <c r="E173">
         <v>800</v>
       </c>
       <c r="F173" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G173" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H173" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I173" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5654,25 +5828,25 @@
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>15</v>
-      </c>
-      <c r="D174">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>110</v>
       </c>
       <c r="E174">
         <v>600</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G174" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H174" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I174" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5683,25 +5857,25 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>40</v>
-      </c>
-      <c r="D175">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="D175" t="s">
+        <v>110</v>
       </c>
       <c r="E175">
         <v>600</v>
       </c>
       <c r="F175" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G175" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H175" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I175" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5712,25 +5886,25 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>62</v>
-      </c>
-      <c r="D176">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="D176" t="s">
+        <v>110</v>
       </c>
       <c r="E176">
         <v>600</v>
       </c>
       <c r="F176" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G176" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H176" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I176" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5741,25 +5915,25 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>74</v>
-      </c>
-      <c r="D177">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="D177" t="s">
+        <v>110</v>
       </c>
       <c r="E177">
         <v>600</v>
       </c>
       <c r="F177" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G177" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="H177" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I177" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5770,25 +5944,25 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>19</v>
-      </c>
-      <c r="D178">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>111</v>
       </c>
       <c r="E178">
         <v>800</v>
       </c>
       <c r="F178" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G178" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H178" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I178" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5799,25 +5973,25 @@
         <v>0.7</v>
       </c>
       <c r="C179">
-        <v>63</v>
-      </c>
-      <c r="D179">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="D179" t="s">
+        <v>111</v>
       </c>
       <c r="E179">
         <v>800</v>
       </c>
       <c r="F179" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G179" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H179" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I179" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5828,25 +6002,25 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>69</v>
-      </c>
-      <c r="D180">
-        <v>32</v>
+        <v>67</v>
+      </c>
+      <c r="D180" t="s">
+        <v>111</v>
       </c>
       <c r="E180">
         <v>800</v>
       </c>
       <c r="F180" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G180" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H180" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I180" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5857,25 +6031,25 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>82</v>
-      </c>
-      <c r="D181">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="D181" t="s">
+        <v>111</v>
       </c>
       <c r="E181">
         <v>800</v>
       </c>
       <c r="F181" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G181" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H181" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I181" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5886,25 +6060,25 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>15</v>
-      </c>
-      <c r="D182">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>112</v>
       </c>
       <c r="E182">
         <v>600</v>
       </c>
       <c r="F182" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G182" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H182" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I182" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5915,25 +6089,25 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>30</v>
-      </c>
-      <c r="D183">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>112</v>
       </c>
       <c r="E183">
         <v>600</v>
       </c>
       <c r="F183" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G183" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I183" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5944,25 +6118,25 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>43</v>
-      </c>
-      <c r="D184">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="D184" t="s">
+        <v>112</v>
       </c>
       <c r="E184">
         <v>600</v>
       </c>
       <c r="F184" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G184" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H184" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I184" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5973,25 +6147,25 @@
         <v>0.9</v>
       </c>
       <c r="C185">
-        <v>59</v>
-      </c>
-      <c r="D185">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="D185" t="s">
+        <v>112</v>
       </c>
       <c r="E185">
         <v>600</v>
       </c>
       <c r="F185" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G185" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H185" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I185" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6002,25 +6176,25 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>17</v>
-      </c>
-      <c r="D186">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>113</v>
       </c>
       <c r="E186">
         <v>700</v>
       </c>
       <c r="F186" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G186" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H186" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I186" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6031,25 +6205,25 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>28</v>
-      </c>
-      <c r="D187">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D187" t="s">
+        <v>113</v>
       </c>
       <c r="E187">
         <v>700</v>
       </c>
       <c r="F187" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G187" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H187" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I187" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6060,25 +6234,25 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>71</v>
-      </c>
-      <c r="D188">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="D188" t="s">
+        <v>113</v>
       </c>
       <c r="E188">
         <v>700</v>
       </c>
       <c r="F188" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G188" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H188" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I188" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6089,25 +6263,25 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>80</v>
-      </c>
-      <c r="D189">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="D189" t="s">
+        <v>113</v>
       </c>
       <c r="E189">
         <v>700</v>
       </c>
       <c r="F189" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H189" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I189" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6118,25 +6292,25 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>44</v>
-      </c>
-      <c r="D190">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>114</v>
       </c>
       <c r="E190">
         <v>500</v>
       </c>
       <c r="F190" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G190" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H190" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I190" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6147,25 +6321,25 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>63</v>
-      </c>
-      <c r="D191">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="D191" t="s">
+        <v>114</v>
       </c>
       <c r="E191">
         <v>500</v>
       </c>
       <c r="F191" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G191" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H191" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I191" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6176,25 +6350,25 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>70</v>
-      </c>
-      <c r="D192">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>114</v>
       </c>
       <c r="E192">
         <v>500</v>
       </c>
       <c r="F192" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G192" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H192" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I192" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6205,25 +6379,25 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>80</v>
-      </c>
-      <c r="D193">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="D193" t="s">
+        <v>114</v>
       </c>
       <c r="E193">
         <v>500</v>
       </c>
       <c r="F193" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G193" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I193" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6234,25 +6408,25 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>49</v>
-      </c>
-      <c r="D194">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D194" t="s">
+        <v>115</v>
       </c>
       <c r="E194">
         <v>900</v>
       </c>
       <c r="F194" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G194" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H194" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I194" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6263,25 +6437,25 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>70</v>
-      </c>
-      <c r="D195">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>115</v>
       </c>
       <c r="E195">
         <v>900</v>
       </c>
       <c r="F195" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G195" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H195" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I195" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6292,25 +6466,25 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>85</v>
-      </c>
-      <c r="D196">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="D196" t="s">
+        <v>115</v>
       </c>
       <c r="E196">
         <v>900</v>
       </c>
       <c r="F196" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G196" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H196" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I196" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6321,25 +6495,25 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>110</v>
-      </c>
-      <c r="D197">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="D197" t="s">
+        <v>115</v>
       </c>
       <c r="E197">
         <v>900</v>
       </c>
       <c r="F197" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G197" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H197" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I197" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6350,25 +6524,25 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>36</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D198" t="s">
+        <v>116</v>
       </c>
       <c r="E198">
         <v>900</v>
       </c>
       <c r="F198" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G198" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H198" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I198" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6379,25 +6553,25 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>57</v>
-      </c>
-      <c r="D199">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D199" t="s">
+        <v>116</v>
       </c>
       <c r="E199">
         <v>900</v>
       </c>
       <c r="F199" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G199" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H199" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I199" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6408,25 +6582,25 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>65</v>
-      </c>
-      <c r="D200">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>116</v>
       </c>
       <c r="E200">
         <v>900</v>
       </c>
       <c r="F200" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G200" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H200" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I200" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6437,25 +6611,25 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>85</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="D201" t="s">
+        <v>116</v>
       </c>
       <c r="E201">
         <v>900</v>
       </c>
       <c r="F201" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G201" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H201" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I201" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6466,25 +6640,25 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>21</v>
-      </c>
-      <c r="D202">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="D202" t="s">
+        <v>117</v>
       </c>
       <c r="E202">
         <v>900</v>
       </c>
       <c r="F202" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G202" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H202" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I202" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6495,25 +6669,25 @@
         <v>0.7</v>
       </c>
       <c r="C203">
-        <v>37</v>
-      </c>
-      <c r="D203">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D203" t="s">
+        <v>117</v>
       </c>
       <c r="E203">
         <v>900</v>
       </c>
       <c r="F203" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G203" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I203" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6524,25 +6698,25 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>60</v>
-      </c>
-      <c r="D204">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>117</v>
       </c>
       <c r="E204">
         <v>900</v>
       </c>
       <c r="F204" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G204" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I204" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6553,25 +6727,25 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>70</v>
-      </c>
-      <c r="D205">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>117</v>
       </c>
       <c r="E205">
         <v>900</v>
       </c>
       <c r="F205" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G205" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I205" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6582,25 +6756,25 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>51</v>
-      </c>
-      <c r="D206">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
       </c>
       <c r="E206">
         <v>700</v>
       </c>
       <c r="F206" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G206" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H206" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I206" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6611,25 +6785,25 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>63</v>
-      </c>
-      <c r="D207">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="D207" t="s">
+        <v>118</v>
       </c>
       <c r="E207">
         <v>700</v>
       </c>
       <c r="F207" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G207" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H207" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I207" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6640,25 +6814,25 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>67</v>
-      </c>
-      <c r="D208">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="D208" t="s">
+        <v>118</v>
       </c>
       <c r="E208">
         <v>700</v>
       </c>
       <c r="F208" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G208" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H208" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I208" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6669,25 +6843,25 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>88</v>
-      </c>
-      <c r="D209">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="D209" t="s">
+        <v>118</v>
       </c>
       <c r="E209">
         <v>700</v>
       </c>
       <c r="F209" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G209" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H209" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I209" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6698,25 +6872,25 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>44</v>
-      </c>
-      <c r="D210">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D210" t="s">
+        <v>119</v>
       </c>
       <c r="E210">
         <v>800</v>
       </c>
       <c r="F210" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H210" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I210" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6727,25 +6901,25 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>70</v>
-      </c>
-      <c r="D211">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>119</v>
       </c>
       <c r="E211">
         <v>800</v>
       </c>
       <c r="F211" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G211" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H211" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I211" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6756,25 +6930,25 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>75</v>
-      </c>
-      <c r="D212">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="D212" t="s">
+        <v>119</v>
       </c>
       <c r="E212">
         <v>800</v>
       </c>
       <c r="F212" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H212" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I212" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6785,25 +6959,25 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>83</v>
-      </c>
-      <c r="D213">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="D213" t="s">
+        <v>119</v>
       </c>
       <c r="E213">
         <v>800</v>
       </c>
       <c r="F213" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G213" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H213" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I213" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6814,25 +6988,25 @@
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>9</v>
-      </c>
-      <c r="D214">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>120</v>
       </c>
       <c r="E214">
         <v>500</v>
       </c>
       <c r="F214" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G214" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H214" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I214" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6843,25 +7017,25 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>35</v>
-      </c>
-      <c r="D215">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D215" t="s">
+        <v>120</v>
       </c>
       <c r="E215">
         <v>500</v>
       </c>
       <c r="F215" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G215" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H215" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I215" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6872,25 +7046,25 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>48</v>
-      </c>
-      <c r="D216">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="D216" t="s">
+        <v>120</v>
       </c>
       <c r="E216">
         <v>500</v>
       </c>
       <c r="F216" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G216" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H216" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I216" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6901,25 +7075,25 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>79</v>
-      </c>
-      <c r="D217">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="D217" t="s">
+        <v>120</v>
       </c>
       <c r="E217">
         <v>500</v>
       </c>
       <c r="F217" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G217" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H217" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I217" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6930,25 +7104,25 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>50</v>
-      </c>
-      <c r="D218">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D218" t="s">
+        <v>121</v>
       </c>
       <c r="E218">
         <v>500</v>
       </c>
       <c r="F218" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G218" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H218" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I218" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6959,25 +7133,25 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>75</v>
-      </c>
-      <c r="D219">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="D219" t="s">
+        <v>121</v>
       </c>
       <c r="E219">
         <v>500</v>
       </c>
       <c r="F219" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G219" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H219" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I219" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6988,25 +7162,25 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>106</v>
-      </c>
-      <c r="D220">
-        <v>53</v>
+        <v>104</v>
+      </c>
+      <c r="D220" t="s">
+        <v>121</v>
       </c>
       <c r="E220">
         <v>500</v>
       </c>
       <c r="F220" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G220" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H220" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I220" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7017,25 +7191,25 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>125</v>
-      </c>
-      <c r="D221">
-        <v>53</v>
+        <v>122</v>
+      </c>
+      <c r="D221" t="s">
+        <v>121</v>
       </c>
       <c r="E221">
         <v>500</v>
       </c>
       <c r="F221" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G221" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H221" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I221" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7046,25 +7220,25 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>35</v>
-      </c>
-      <c r="D222">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D222" t="s">
+        <v>122</v>
       </c>
       <c r="E222">
         <v>850</v>
       </c>
       <c r="F222" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G222" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H222" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I222" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7075,25 +7249,25 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>58</v>
-      </c>
-      <c r="D223">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="D223" t="s">
+        <v>122</v>
       </c>
       <c r="E223">
         <v>850</v>
       </c>
       <c r="F223" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G223" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H223" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I223" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7104,25 +7278,25 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>72</v>
-      </c>
-      <c r="D224">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="D224" t="s">
+        <v>122</v>
       </c>
       <c r="E224">
         <v>850</v>
       </c>
       <c r="F224" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G224" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H224" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I224" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7133,25 +7307,25 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>96</v>
-      </c>
-      <c r="D225">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="D225" t="s">
+        <v>122</v>
       </c>
       <c r="E225">
         <v>850</v>
       </c>
       <c r="F225" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G225" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H225" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I225" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7162,25 +7336,25 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>23</v>
-      </c>
-      <c r="D226">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D226" t="s">
+        <v>123</v>
       </c>
       <c r="E226">
         <v>700</v>
       </c>
       <c r="F226" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G226" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I226" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7191,25 +7365,25 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>67</v>
-      </c>
-      <c r="D227">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>123</v>
       </c>
       <c r="E227">
         <v>700</v>
       </c>
       <c r="F227" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G227" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H227" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I227" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7220,25 +7394,25 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>73</v>
-      </c>
-      <c r="D228">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="D228" t="s">
+        <v>123</v>
       </c>
       <c r="E228">
         <v>700</v>
       </c>
       <c r="F228" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G228" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H228" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I228" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7249,25 +7423,25 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>83</v>
-      </c>
-      <c r="D229">
-        <v>35</v>
+        <v>81</v>
+      </c>
+      <c r="D229" t="s">
+        <v>123</v>
       </c>
       <c r="E229">
         <v>700</v>
       </c>
       <c r="F229" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G229" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H229" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I229" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7278,25 +7452,25 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>48</v>
-      </c>
-      <c r="D230">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D230" t="s">
+        <v>124</v>
       </c>
       <c r="E230">
         <v>850</v>
       </c>
       <c r="F230" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G230" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H230" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I230" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7307,25 +7481,25 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>64</v>
-      </c>
-      <c r="D231">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="D231" t="s">
+        <v>124</v>
       </c>
       <c r="E231">
         <v>850</v>
       </c>
       <c r="F231" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G231" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H231" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I231" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7336,25 +7510,25 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>79</v>
-      </c>
-      <c r="D232">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="D232" t="s">
+        <v>124</v>
       </c>
       <c r="E232">
         <v>850</v>
       </c>
       <c r="F232" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G232" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H232" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I232" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7365,25 +7539,25 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>117</v>
-      </c>
-      <c r="D233">
-        <v>43</v>
+        <v>115</v>
+      </c>
+      <c r="D233" t="s">
+        <v>124</v>
       </c>
       <c r="E233">
         <v>850</v>
       </c>
       <c r="F233" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G233" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H233" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I233" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -840,7 +840,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -869,7 +869,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -898,7 +898,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -927,7 +927,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -956,7 +956,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -985,7 +985,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -1014,7 +1014,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -1043,7 +1043,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -1072,7 +1072,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -1101,7 +1101,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -1130,7 +1130,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
@@ -1159,7 +1159,7 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -1188,7 +1188,7 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -1217,7 +1217,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -1246,7 +1246,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1275,7 +1275,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -1304,7 +1304,7 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -1333,7 +1333,7 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1362,7 +1362,7 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
@@ -1391,7 +1391,7 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>71</v>
@@ -1420,7 +1420,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -1449,7 +1449,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1478,7 +1478,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1507,7 +1507,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -1536,7 +1536,7 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -1565,7 +1565,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
@@ -1594,7 +1594,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
@@ -1623,7 +1623,7 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
@@ -1652,7 +1652,7 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
@@ -1681,7 +1681,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
@@ -1710,7 +1710,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1739,7 +1739,7 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1768,7 +1768,7 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>75</v>
@@ -1797,7 +1797,7 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -1826,7 +1826,7 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -1855,7 +1855,7 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>75</v>
@@ -1913,7 +1913,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
@@ -1942,7 +1942,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1971,7 +1971,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
@@ -2000,7 +2000,7 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>77</v>
@@ -2029,7 +2029,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -2058,7 +2058,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2087,7 +2087,7 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>77</v>
@@ -2116,7 +2116,7 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>78</v>
@@ -2145,7 +2145,7 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>78</v>
@@ -2174,7 +2174,7 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
         <v>78</v>
@@ -2203,7 +2203,7 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>78</v>
@@ -2232,7 +2232,7 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>79</v>
@@ -2261,7 +2261,7 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
@@ -2290,7 +2290,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
         <v>79</v>
@@ -2319,7 +2319,7 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
         <v>79</v>
@@ -2348,7 +2348,7 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -2377,7 +2377,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -2406,7 +2406,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -2435,7 +2435,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -2464,7 +2464,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -2493,7 +2493,7 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -2522,7 +2522,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -2551,7 +2551,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -2580,7 +2580,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
@@ -2638,7 +2638,7 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -2667,7 +2667,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -2696,7 +2696,7 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>83</v>
@@ -2725,7 +2725,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2754,7 +2754,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -2783,7 +2783,7 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
@@ -2812,7 +2812,7 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>84</v>
@@ -2841,7 +2841,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
         <v>84</v>
@@ -2870,7 +2870,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
@@ -2899,7 +2899,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
         <v>84</v>
@@ -2928,7 +2928,7 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
@@ -2957,7 +2957,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
         <v>85</v>
@@ -2986,7 +2986,7 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
@@ -3015,7 +3015,7 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
         <v>85</v>
@@ -3044,7 +3044,7 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
@@ -3073,7 +3073,7 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
@@ -3102,7 +3102,7 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
@@ -3131,7 +3131,7 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
@@ -3160,7 +3160,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -3189,7 +3189,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>87</v>
@@ -3218,7 +3218,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
@@ -3247,7 +3247,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -3276,7 +3276,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -3305,7 +3305,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3334,7 +3334,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
@@ -3363,7 +3363,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3392,7 +3392,7 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
         <v>89</v>
@@ -3421,7 +3421,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>89</v>
@@ -3450,7 +3450,7 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
         <v>89</v>
@@ -3479,7 +3479,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
         <v>89</v>
@@ -3508,7 +3508,7 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
         <v>90</v>
@@ -3537,7 +3537,7 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
@@ -3566,7 +3566,7 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>90</v>
@@ -3595,7 +3595,7 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>90</v>
@@ -3624,7 +3624,7 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
@@ -3653,7 +3653,7 @@
         <v>0.7</v>
       </c>
       <c r="C99">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
         <v>91</v>
@@ -3682,7 +3682,7 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
@@ -3711,7 +3711,7 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
@@ -3740,7 +3740,7 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
         <v>92</v>
@@ -3769,7 +3769,7 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>92</v>
@@ -3798,7 +3798,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
         <v>92</v>
@@ -3827,7 +3827,7 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
         <v>92</v>
@@ -3856,7 +3856,7 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>93</v>
@@ -3885,7 +3885,7 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
         <v>93</v>
@@ -3914,7 +3914,7 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>93</v>
@@ -3943,7 +3943,7 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
         <v>93</v>
@@ -3972,7 +3972,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
         <v>94</v>
@@ -4001,7 +4001,7 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
         <v>94</v>
@@ -4030,7 +4030,7 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
         <v>94</v>
@@ -4059,7 +4059,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
         <v>94</v>
@@ -4088,7 +4088,7 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
         <v>95</v>
@@ -4117,7 +4117,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D115" t="s">
         <v>95</v>
@@ -4146,7 +4146,7 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
         <v>95</v>
@@ -4175,7 +4175,7 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>95</v>
@@ -4204,7 +4204,7 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>96</v>
@@ -4233,7 +4233,7 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
         <v>96</v>
@@ -4262,7 +4262,7 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
         <v>96</v>
@@ -4291,7 +4291,7 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D121" t="s">
         <v>96</v>
@@ -4320,7 +4320,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -4349,7 +4349,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -4378,7 +4378,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -4407,7 +4407,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -4436,7 +4436,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
         <v>98</v>
@@ -4465,7 +4465,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
         <v>98</v>
@@ -4494,7 +4494,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
         <v>98</v>
@@ -4523,7 +4523,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
         <v>98</v>
@@ -4552,7 +4552,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
         <v>99</v>
@@ -4581,7 +4581,7 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
         <v>99</v>
@@ -4610,7 +4610,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
         <v>99</v>
@@ -4639,7 +4639,7 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
         <v>99</v>
@@ -4668,7 +4668,7 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
         <v>100</v>
@@ -4697,7 +4697,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
         <v>100</v>
@@ -4726,7 +4726,7 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
         <v>100</v>
@@ -4755,7 +4755,7 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D137" t="s">
         <v>100</v>
@@ -4784,7 +4784,7 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
         <v>101</v>
@@ -4813,7 +4813,7 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D139" t="s">
         <v>101</v>
@@ -4842,7 +4842,7 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
         <v>101</v>
@@ -4871,7 +4871,7 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
         <v>101</v>
@@ -4900,7 +4900,7 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
         <v>102</v>
@@ -4929,7 +4929,7 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
         <v>102</v>
@@ -4958,7 +4958,7 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
         <v>102</v>
@@ -4987,7 +4987,7 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D145" t="s">
         <v>102</v>
@@ -5016,7 +5016,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
         <v>103</v>
@@ -5045,7 +5045,7 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
         <v>103</v>
@@ -5074,7 +5074,7 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
         <v>103</v>
@@ -5103,7 +5103,7 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D149" t="s">
         <v>103</v>
@@ -5132,7 +5132,7 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
         <v>104</v>
@@ -5161,7 +5161,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D151" t="s">
         <v>104</v>
@@ -5190,7 +5190,7 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D152" t="s">
         <v>104</v>
@@ -5219,7 +5219,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D153" t="s">
         <v>104</v>
@@ -5248,7 +5248,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
         <v>105</v>
@@ -5277,7 +5277,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
         <v>105</v>
@@ -5306,7 +5306,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D156" t="s">
         <v>105</v>
@@ -5335,7 +5335,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
         <v>105</v>
@@ -5364,7 +5364,7 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
         <v>106</v>
@@ -5393,7 +5393,7 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D159" t="s">
         <v>106</v>
@@ -5422,7 +5422,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
         <v>106</v>
@@ -5451,7 +5451,7 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D161" t="s">
         <v>106</v>
@@ -5480,7 +5480,7 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D162" t="s">
         <v>107</v>
@@ -5509,7 +5509,7 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D163" t="s">
         <v>107</v>
@@ -5538,7 +5538,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
         <v>107</v>
@@ -5567,7 +5567,7 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D165" t="s">
         <v>107</v>
@@ -5596,7 +5596,7 @@
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
         <v>108</v>
@@ -5625,7 +5625,7 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
         <v>108</v>
@@ -5654,7 +5654,7 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D168" t="s">
         <v>108</v>
@@ -5683,7 +5683,7 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
         <v>108</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="C170">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
         <v>109</v>
@@ -5741,7 +5741,7 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
         <v>109</v>
@@ -5770,7 +5770,7 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D172" t="s">
         <v>109</v>
@@ -5799,7 +5799,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D173" t="s">
         <v>109</v>
@@ -5828,7 +5828,7 @@
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
         <v>110</v>
@@ -5857,7 +5857,7 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
         <v>110</v>
@@ -5886,7 +5886,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
         <v>110</v>
@@ -5915,7 +5915,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
         <v>110</v>
@@ -5944,7 +5944,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
@@ -5973,7 +5973,7 @@
         <v>0.7</v>
       </c>
       <c r="C179">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D179" t="s">
         <v>111</v>
@@ -6002,7 +6002,7 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
         <v>111</v>
@@ -6031,7 +6031,7 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D181" t="s">
         <v>111</v>
@@ -6060,7 +6060,7 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D182" t="s">
         <v>112</v>
@@ -6089,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D183" t="s">
         <v>112</v>
@@ -6118,7 +6118,7 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D184" t="s">
         <v>112</v>
@@ -6147,7 +6147,7 @@
         <v>0.9</v>
       </c>
       <c r="C185">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D185" t="s">
         <v>112</v>
@@ -6176,7 +6176,7 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
         <v>113</v>
@@ -6205,7 +6205,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
         <v>113</v>
@@ -6234,7 +6234,7 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D188" t="s">
         <v>113</v>
@@ -6263,7 +6263,7 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D189" t="s">
         <v>113</v>
@@ -6292,7 +6292,7 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D190" t="s">
         <v>114</v>
@@ -6321,7 +6321,7 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
         <v>114</v>
@@ -6350,7 +6350,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D192" t="s">
         <v>114</v>
@@ -6379,7 +6379,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
         <v>114</v>
@@ -6408,7 +6408,7 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D194" t="s">
         <v>115</v>
@@ -6437,7 +6437,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D195" t="s">
         <v>115</v>
@@ -6466,7 +6466,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D196" t="s">
         <v>115</v>
@@ -6495,7 +6495,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D197" t="s">
         <v>115</v>
@@ -6524,7 +6524,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D198" t="s">
         <v>116</v>
@@ -6553,7 +6553,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
@@ -6582,7 +6582,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
         <v>116</v>
@@ -6611,7 +6611,7 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
         <v>116</v>
@@ -6640,7 +6640,7 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
         <v>117</v>
@@ -6669,7 +6669,7 @@
         <v>0.7</v>
       </c>
       <c r="C203">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D203" t="s">
         <v>117</v>
@@ -6698,7 +6698,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
         <v>117</v>
@@ -6727,7 +6727,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
         <v>117</v>
@@ -6756,7 +6756,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D206" t="s">
         <v>118</v>
@@ -6785,7 +6785,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
         <v>118</v>
@@ -6814,7 +6814,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D208" t="s">
         <v>118</v>
@@ -6843,7 +6843,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D209" t="s">
         <v>118</v>
@@ -6872,7 +6872,7 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
         <v>119</v>
@@ -6901,7 +6901,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
         <v>119</v>
@@ -6930,7 +6930,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D212" t="s">
         <v>119</v>
@@ -6959,7 +6959,7 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D213" t="s">
         <v>119</v>
@@ -6988,7 +6988,7 @@
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
         <v>120</v>
@@ -7017,7 +7017,7 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D215" t="s">
         <v>120</v>
@@ -7046,7 +7046,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D216" t="s">
         <v>120</v>
@@ -7075,7 +7075,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
         <v>120</v>
@@ -7104,7 +7104,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D218" t="s">
         <v>121</v>
@@ -7133,7 +7133,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D219" t="s">
         <v>121</v>
@@ -7162,7 +7162,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D220" t="s">
         <v>121</v>
@@ -7191,7 +7191,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D221" t="s">
         <v>121</v>
@@ -7220,7 +7220,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D222" t="s">
         <v>122</v>
@@ -7249,7 +7249,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
         <v>122</v>
@@ -7278,7 +7278,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D224" t="s">
         <v>122</v>
@@ -7307,7 +7307,7 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D225" t="s">
         <v>122</v>
@@ -7336,7 +7336,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D226" t="s">
         <v>123</v>
@@ -7365,7 +7365,7 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
         <v>123</v>
@@ -7394,7 +7394,7 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D228" t="s">
         <v>123</v>
@@ -7423,7 +7423,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D229" t="s">
         <v>123</v>
@@ -7452,7 +7452,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
         <v>124</v>
@@ -7481,7 +7481,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D231" t="s">
         <v>124</v>
@@ -7510,7 +7510,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D232" t="s">
         <v>124</v>
@@ -7539,7 +7539,7 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D233" t="s">
         <v>124</v>

--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -34,7 +34,7 @@
     <t>TireSize</t>
   </si>
   <si>
-    <t>Ver</t>
+    <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
@@ -840,7 +840,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -869,7 +869,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -898,7 +898,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -927,7 +927,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -985,7 +985,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -1014,7 +1014,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -1043,7 +1043,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -1101,7 +1101,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -1130,7 +1130,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
@@ -1159,7 +1159,7 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -1217,7 +1217,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -1246,7 +1246,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1275,7 +1275,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -1420,7 +1420,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -1449,7 +1449,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1478,7 +1478,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1507,7 +1507,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -1565,7 +1565,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
@@ -1594,7 +1594,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
@@ -1681,7 +1681,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
@@ -1710,7 +1710,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1739,7 +1739,7 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1826,7 +1826,7 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -2029,7 +2029,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -2058,7 +2058,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2261,7 +2261,7 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
@@ -2290,7 +2290,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>79</v>
@@ -2377,7 +2377,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -2406,7 +2406,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -2435,7 +2435,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -2464,7 +2464,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -2493,7 +2493,7 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -2522,7 +2522,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -2551,7 +2551,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -2580,7 +2580,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
@@ -2609,7 +2609,7 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
@@ -2638,7 +2638,7 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -2667,7 +2667,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -2696,7 +2696,7 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>83</v>
@@ -2725,7 +2725,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2754,7 +2754,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -2783,7 +2783,7 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
@@ -2870,7 +2870,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
@@ -2928,7 +2928,7 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
@@ -2986,7 +2986,7 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
@@ -3015,7 +3015,7 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>85</v>
@@ -3131,7 +3131,7 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
@@ -3160,7 +3160,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -3189,7 +3189,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>87</v>
@@ -3276,7 +3276,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -3305,7 +3305,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3334,7 +3334,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
@@ -3363,7 +3363,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3421,7 +3421,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>89</v>
@@ -3450,7 +3450,7 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>89</v>
@@ -3479,7 +3479,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>89</v>
@@ -3595,7 +3595,7 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
         <v>90</v>
@@ -3798,7 +3798,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
         <v>92</v>
@@ -3827,7 +3827,7 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
         <v>92</v>
@@ -3856,7 +3856,7 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
         <v>93</v>
@@ -3885,7 +3885,7 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>93</v>
@@ -3943,7 +3943,7 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>93</v>
@@ -3972,7 +3972,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>94</v>
@@ -4059,7 +4059,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
         <v>94</v>
@@ -4117,7 +4117,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
         <v>95</v>
@@ -4204,7 +4204,7 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>96</v>
@@ -4262,7 +4262,7 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
         <v>96</v>
@@ -4291,7 +4291,7 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
         <v>96</v>
@@ -4320,7 +4320,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -4349,7 +4349,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -4378,7 +4378,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -4407,7 +4407,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -4436,7 +4436,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
         <v>98</v>
@@ -4465,7 +4465,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
         <v>98</v>
@@ -4494,7 +4494,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
         <v>98</v>
@@ -4552,7 +4552,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
         <v>99</v>
@@ -4610,7 +4610,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
         <v>99</v>
@@ -4639,7 +4639,7 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>99</v>
@@ -4668,7 +4668,7 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
         <v>100</v>
@@ -4697,7 +4697,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135" t="s">
         <v>100</v>
@@ -4726,7 +4726,7 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
         <v>100</v>
@@ -4755,7 +4755,7 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
         <v>100</v>
@@ -4871,7 +4871,7 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
         <v>101</v>
@@ -4929,7 +4929,7 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
         <v>102</v>
@@ -4958,7 +4958,7 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
         <v>102</v>
@@ -4987,7 +4987,7 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
         <v>102</v>
@@ -5045,7 +5045,7 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
         <v>103</v>
@@ -5074,7 +5074,7 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
         <v>103</v>
@@ -5103,7 +5103,7 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
         <v>103</v>
@@ -5132,7 +5132,7 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
         <v>104</v>
@@ -5161,7 +5161,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
         <v>104</v>
@@ -5190,7 +5190,7 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>104</v>
@@ -5219,7 +5219,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>104</v>
@@ -5277,7 +5277,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
         <v>105</v>
@@ -5306,7 +5306,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
         <v>105</v>
@@ -5422,7 +5422,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
         <v>106</v>
@@ -5451,7 +5451,7 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>106</v>
@@ -5538,7 +5538,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D164" t="s">
         <v>107</v>
@@ -5567,7 +5567,7 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
         <v>107</v>
@@ -5741,7 +5741,7 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
         <v>109</v>
@@ -5770,7 +5770,7 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
         <v>109</v>
@@ -5799,7 +5799,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
         <v>109</v>
@@ -5886,7 +5886,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" t="s">
         <v>110</v>
@@ -5915,7 +5915,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" t="s">
         <v>110</v>
@@ -5944,7 +5944,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
@@ -5973,7 +5973,7 @@
         <v>0.7</v>
       </c>
       <c r="C179">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
         <v>111</v>
@@ -6205,7 +6205,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
         <v>113</v>
@@ -6350,7 +6350,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
         <v>114</v>
@@ -6379,7 +6379,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
         <v>114</v>
@@ -6408,7 +6408,7 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
         <v>115</v>
@@ -6437,7 +6437,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
         <v>115</v>
@@ -6466,7 +6466,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
         <v>115</v>
@@ -6495,7 +6495,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
         <v>115</v>
@@ -6524,7 +6524,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
         <v>116</v>
@@ -6553,7 +6553,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
@@ -6582,7 +6582,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D200" t="s">
         <v>116</v>
@@ -6698,7 +6698,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
         <v>117</v>
@@ -6727,7 +6727,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>117</v>
@@ -6756,7 +6756,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="s">
         <v>118</v>
@@ -6785,7 +6785,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
         <v>118</v>
@@ -6814,7 +6814,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
         <v>118</v>
@@ -6843,7 +6843,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
         <v>118</v>
@@ -6872,7 +6872,7 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D210" t="s">
         <v>119</v>
@@ -6901,7 +6901,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
         <v>119</v>
@@ -6930,7 +6930,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D212" t="s">
         <v>119</v>
@@ -6959,7 +6959,7 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D213" t="s">
         <v>119</v>
@@ -7075,7 +7075,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
         <v>120</v>
@@ -7104,7 +7104,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
         <v>121</v>
@@ -7133,7 +7133,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
         <v>121</v>
@@ -7162,7 +7162,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D220" t="s">
         <v>121</v>
@@ -7191,7 +7191,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D221" t="s">
         <v>121</v>
@@ -7220,7 +7220,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
         <v>122</v>
@@ -7249,7 +7249,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D223" t="s">
         <v>122</v>
@@ -7278,7 +7278,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D224" t="s">
         <v>122</v>
@@ -7307,7 +7307,7 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D225" t="s">
         <v>122</v>
@@ -7336,7 +7336,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
         <v>123</v>
@@ -7423,7 +7423,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
         <v>123</v>
@@ -7452,7 +7452,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
         <v>124</v>
@@ -7481,7 +7481,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D231" t="s">
         <v>124</v>
@@ -7510,7 +7510,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D232" t="s">
         <v>124</v>
@@ -7539,7 +7539,7 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D233" t="s">
         <v>124</v>

--- a/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="140">
   <si>
     <t>File_Name</t>
   </si>
@@ -49,22 +49,151 @@
     <t>39_11R22.xlsx</t>
   </si>
   <si>
+    <t>57_11R22.xlsx</t>
+  </si>
+  <si>
     <t>14_245-70R19.xlsx</t>
   </si>
   <si>
+    <t>63_11R22.xlsx</t>
+  </si>
+  <si>
     <t>48_455-55R22.xlsx</t>
   </si>
   <si>
+    <t>59_11R22.xlsx</t>
+  </si>
+  <si>
     <t>40_11R22.xlsx</t>
   </si>
   <si>
+    <t>12_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>22_245-70R19.xlsx</t>
+  </si>
+  <si>
+    <t>28_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>3_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>49_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>27_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>55_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>24_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>17_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>19_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>34_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>30_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>50_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>10_245-70R19.xlsx</t>
+  </si>
+  <si>
+    <t>1_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>51_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>9_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>5_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>7_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>52_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>16_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>46_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>6_245-70R19.xlsx</t>
+  </si>
+  <si>
+    <t>45_225-80R17.xlsx</t>
+  </si>
+  <si>
     <t>54_11R22.xlsx</t>
   </si>
   <si>
+    <t>4_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>44_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>38_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>13_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>62_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>20_455-55R22.xlsx</t>
+  </si>
+  <si>
+    <t>18_245-70R19.xlsx</t>
+  </si>
+  <si>
+    <t>11_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>32_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>36_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>23_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>42_225-80R17.xlsx</t>
+  </si>
+  <si>
+    <t>2_245-70R19.xlsx</t>
+  </si>
+  <si>
+    <t>26_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>60_11R22.xlsx</t>
+  </si>
+  <si>
+    <t>15_225-80R17.xlsx</t>
+  </si>
+  <si>
     <t>61_11R22.xlsx</t>
   </si>
   <si>
-    <t>59_11R22.xlsx</t>
+    <t>31_11R22.xlsx</t>
   </si>
   <si>
     <t>56_11R22.xlsx</t>
@@ -73,135 +202,6 @@
     <t>58_11R22.xlsx</t>
   </si>
   <si>
-    <t>12_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>22_245-70R19.xlsx</t>
-  </si>
-  <si>
-    <t>28_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>3_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>49_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>27_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>24_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>17_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>19_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>34_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>30_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>50_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>10_245-70R19.xlsx</t>
-  </si>
-  <si>
-    <t>60_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>1_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>51_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>9_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>5_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>63_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>7_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>52_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>16_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>46_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>55_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>6_245-70R19.xlsx</t>
-  </si>
-  <si>
-    <t>45_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>4_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>44_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>38_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>13_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>20_455-55R22.xlsx</t>
-  </si>
-  <si>
-    <t>18_245-70R19.xlsx</t>
-  </si>
-  <si>
-    <t>11_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>57_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>32_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>62_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>36_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>23_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>42_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>2_245-70R19.xlsx</t>
-  </si>
-  <si>
-    <t>26_11R22.xlsx</t>
-  </si>
-  <si>
-    <t>15_225-80R17.xlsx</t>
-  </si>
-  <si>
-    <t>31_11R22.xlsx</t>
-  </si>
-  <si>
     <t>21_11R22.xlsx</t>
   </si>
   <si>
@@ -223,22 +223,151 @@
     <t>39</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
-    <t>59</t>
+    <t>31</t>
   </si>
   <si>
     <t>56</t>
@@ -247,135 +376,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -413,12 +413,6 @@
   </si>
   <si>
     <t>MY377</t>
-  </si>
-  <si>
-    <t>710Rバフ50</t>
-  </si>
-  <si>
-    <t>710Rバフ100</t>
   </si>
   <si>
     <t>716U</t>
@@ -840,7 +834,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -855,10 +849,10 @@
         <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -869,7 +863,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -884,10 +878,10 @@
         <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -898,7 +892,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -913,10 +907,10 @@
         <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -942,10 +936,10 @@
         <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -956,7 +950,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -971,10 +965,10 @@
         <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -985,7 +979,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -1000,10 +994,10 @@
         <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1029,10 +1023,10 @@
         <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1043,7 +1037,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -1058,10 +1052,10 @@
         <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1078,19 +1072,19 @@
         <v>69</v>
       </c>
       <c r="E10">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
         <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1101,25 +1095,25 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
       </c>
       <c r="E11">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1130,25 +1124,25 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
         <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1159,25 +1153,25 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1194,19 +1188,19 @@
         <v>70</v>
       </c>
       <c r="E14">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1217,25 +1211,25 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="E15">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1246,25 +1240,25 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
       </c>
       <c r="E16">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1275,25 +1269,25 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1304,25 +1298,25 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
       </c>
       <c r="E18">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
         <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1333,25 +1327,25 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
       <c r="E19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
         <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1362,25 +1356,25 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
         <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1391,25 +1385,25 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>71</v>
       </c>
       <c r="E21">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
         <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
         <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1420,7 +1414,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -1429,16 +1423,16 @@
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" t="s">
         <v>138</v>
-      </c>
-      <c r="I22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1449,7 +1443,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1458,16 +1452,16 @@
         <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
         <v>138</v>
-      </c>
-      <c r="I23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1478,7 +1472,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1487,16 +1481,16 @@
         <v>900</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
         <v>138</v>
-      </c>
-      <c r="I24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1507,7 +1501,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -1516,16 +1510,16 @@
         <v>900</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" t="s">
         <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1536,25 +1530,25 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F26" t="s">
         <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1565,25 +1559,25 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="E27">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F27" t="s">
         <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1594,25 +1588,25 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="E28">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F28" t="s">
         <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1623,25 +1617,25 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="E29">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F29" t="s">
         <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1652,25 +1646,25 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
       </c>
       <c r="E30">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
         <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1681,25 +1675,25 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
       </c>
       <c r="E31">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F31" t="s">
         <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1710,25 +1704,25 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F32" t="s">
         <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1739,25 +1733,25 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F33" t="s">
         <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1774,19 +1768,19 @@
         <v>75</v>
       </c>
       <c r="E34">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
         <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1797,25 +1791,25 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
       </c>
       <c r="E35">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
         <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1826,25 +1820,25 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
       </c>
       <c r="E36">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
         <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1861,19 +1855,19 @@
         <v>75</v>
       </c>
       <c r="E37">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
         <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1893,16 +1887,16 @@
         <v>500</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1922,16 +1916,16 @@
         <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1942,7 +1936,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1951,16 +1945,16 @@
         <v>500</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1971,7 +1965,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
@@ -1980,16 +1974,16 @@
         <v>500</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2000,25 +1994,25 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>77</v>
       </c>
       <c r="E42">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2029,25 +2023,25 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
       </c>
       <c r="E43">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2064,19 +2058,19 @@
         <v>77</v>
       </c>
       <c r="E44">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2087,25 +2081,25 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>77</v>
       </c>
       <c r="E45">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2116,25 +2110,25 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>78</v>
       </c>
       <c r="E46">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2145,25 +2139,25 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>78</v>
       </c>
       <c r="E47">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
         <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2174,25 +2168,25 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
         <v>78</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
         <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2203,25 +2197,25 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>78</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
         <v>129</v>
       </c>
       <c r="H49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2238,19 +2232,19 @@
         <v>79</v>
       </c>
       <c r="E50">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2261,25 +2255,25 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
       </c>
       <c r="E51">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2290,25 +2284,25 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>79</v>
       </c>
       <c r="E52">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2319,25 +2313,25 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
         <v>79</v>
       </c>
       <c r="E53">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2348,7 +2342,7 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -2357,16 +2351,16 @@
         <v>900</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2377,7 +2371,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -2386,16 +2380,16 @@
         <v>900</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2406,7 +2400,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -2415,16 +2409,16 @@
         <v>900</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2435,7 +2429,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -2444,16 +2438,16 @@
         <v>900</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2464,25 +2458,25 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
       </c>
       <c r="E58">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2493,25 +2487,25 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
       </c>
       <c r="E59">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2522,25 +2516,25 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
       </c>
       <c r="E60">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2551,25 +2545,25 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
       </c>
       <c r="E61">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2580,25 +2574,25 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
       </c>
       <c r="E62">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2609,25 +2603,25 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
       </c>
       <c r="E63">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2638,25 +2632,25 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
       </c>
       <c r="E64">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2667,25 +2661,25 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
       </c>
       <c r="E65">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2696,25 +2690,25 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
         <v>83</v>
       </c>
       <c r="E66">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2725,25 +2719,25 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
       </c>
       <c r="E67">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2754,25 +2748,25 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
       </c>
       <c r="E68">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2783,25 +2777,25 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
       </c>
       <c r="E69">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2821,16 +2815,16 @@
         <v>600</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G70" t="s">
         <v>129</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2841,7 +2835,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>84</v>
@@ -2850,16 +2844,16 @@
         <v>600</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G71" t="s">
         <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2870,7 +2864,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
@@ -2879,16 +2873,16 @@
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
         <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2899,7 +2893,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>84</v>
@@ -2908,16 +2902,16 @@
         <v>600</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
         <v>129</v>
       </c>
       <c r="H73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2928,25 +2922,25 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
       </c>
       <c r="E74">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2957,25 +2951,25 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>85</v>
       </c>
       <c r="E75">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G75" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2986,25 +2980,25 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
       <c r="E76">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G76" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3015,25 +3009,25 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>85</v>
       </c>
       <c r="E77">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3044,25 +3038,25 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
       </c>
       <c r="E78">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F78" t="s">
         <v>126</v>
       </c>
       <c r="G78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3073,25 +3067,25 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
       </c>
       <c r="E79">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F79" t="s">
         <v>126</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3102,25 +3096,25 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
       </c>
       <c r="E80">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F80" t="s">
         <v>126</v>
       </c>
       <c r="G80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3131,25 +3125,25 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F81" t="s">
         <v>126</v>
       </c>
       <c r="G81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3160,7 +3154,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -3169,16 +3163,16 @@
         <v>800</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G82" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3189,7 +3183,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>87</v>
@@ -3198,16 +3192,16 @@
         <v>800</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G83" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3218,7 +3212,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
@@ -3227,16 +3221,16 @@
         <v>800</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3247,7 +3241,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -3256,16 +3250,16 @@
         <v>800</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3276,7 +3270,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -3285,16 +3279,16 @@
         <v>800</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3305,7 +3299,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3314,16 +3308,16 @@
         <v>800</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G87" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3334,7 +3328,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
@@ -3343,16 +3337,16 @@
         <v>800</v>
       </c>
       <c r="F88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3363,7 +3357,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3372,16 +3366,16 @@
         <v>800</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3392,25 +3386,25 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
         <v>89</v>
       </c>
       <c r="E90">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
         <v>129</v>
       </c>
       <c r="H90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3421,25 +3415,25 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>89</v>
       </c>
       <c r="E91">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="s">
         <v>129</v>
       </c>
       <c r="H91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3450,25 +3444,25 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>89</v>
       </c>
       <c r="E92">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
         <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3479,25 +3473,25 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>89</v>
       </c>
       <c r="E93">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
         <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3508,25 +3502,25 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
         <v>90</v>
       </c>
       <c r="E94">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I94" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3537,25 +3531,25 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
       </c>
       <c r="E95">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H95" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3566,25 +3560,25 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>90</v>
       </c>
       <c r="E96">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3595,25 +3589,25 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
         <v>90</v>
       </c>
       <c r="E97">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H97" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I97" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3630,7 +3624,7 @@
         <v>91</v>
       </c>
       <c r="E98">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F98" t="s">
         <v>126</v>
@@ -3639,10 +3633,10 @@
         <v>129</v>
       </c>
       <c r="H98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3659,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="E99">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F99" t="s">
         <v>126</v>
@@ -3668,10 +3662,10 @@
         <v>129</v>
       </c>
       <c r="H99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3682,13 +3676,13 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
       </c>
       <c r="E100">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F100" t="s">
         <v>126</v>
@@ -3697,10 +3691,10 @@
         <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3711,13 +3705,13 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
       </c>
       <c r="E101">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F101" t="s">
         <v>126</v>
@@ -3726,10 +3720,10 @@
         <v>129</v>
       </c>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3740,25 +3734,25 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>92</v>
       </c>
       <c r="E102">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3769,25 +3763,25 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
         <v>92</v>
       </c>
       <c r="E103">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3798,25 +3792,25 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
         <v>92</v>
       </c>
       <c r="E104">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3827,25 +3821,25 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
         <v>92</v>
       </c>
       <c r="E105">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3856,25 +3850,25 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>93</v>
       </c>
       <c r="E106">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G106" t="s">
         <v>129</v>
       </c>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3885,25 +3879,25 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
         <v>93</v>
       </c>
       <c r="E107">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G107" t="s">
         <v>129</v>
       </c>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3914,25 +3908,25 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>93</v>
       </c>
       <c r="E108">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G108" t="s">
         <v>129</v>
       </c>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3943,25 +3937,25 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>93</v>
       </c>
       <c r="E109">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G109" t="s">
         <v>129</v>
       </c>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3972,25 +3966,25 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
         <v>94</v>
       </c>
       <c r="E110">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4001,25 +3995,25 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
         <v>94</v>
       </c>
       <c r="E111">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4030,25 +4024,25 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
         <v>94</v>
       </c>
       <c r="E112">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4059,25 +4053,25 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
         <v>94</v>
       </c>
       <c r="E113">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4088,25 +4082,25 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
         <v>95</v>
       </c>
       <c r="E114">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4117,25 +4111,25 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
         <v>95</v>
       </c>
       <c r="E115">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4146,25 +4140,25 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
         <v>95</v>
       </c>
       <c r="E116">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I116" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4175,25 +4169,25 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
         <v>95</v>
       </c>
       <c r="E117">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4204,13 +4198,13 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>96</v>
       </c>
       <c r="E118">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F118" t="s">
         <v>125</v>
@@ -4219,10 +4213,10 @@
         <v>129</v>
       </c>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I118" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4233,13 +4227,13 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
         <v>96</v>
       </c>
       <c r="E119">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F119" t="s">
         <v>125</v>
@@ -4248,10 +4242,10 @@
         <v>129</v>
       </c>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I119" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4262,13 +4256,13 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
         <v>96</v>
       </c>
       <c r="E120">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F120" t="s">
         <v>125</v>
@@ -4277,10 +4271,10 @@
         <v>129</v>
       </c>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I120" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4291,13 +4285,13 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>96</v>
       </c>
       <c r="E121">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="F121" t="s">
         <v>125</v>
@@ -4306,10 +4300,10 @@
         <v>129</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I121" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4326,19 +4320,19 @@
         <v>97</v>
       </c>
       <c r="E122">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G122" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4349,25 +4343,25 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
       </c>
       <c r="E123">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4378,25 +4372,25 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
       </c>
       <c r="E124">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G124" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H124" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4407,25 +4401,25 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
       </c>
       <c r="E125">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H125" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4436,7 +4430,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
         <v>98</v>
@@ -4445,16 +4439,16 @@
         <v>700</v>
       </c>
       <c r="F126" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G126" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H126" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I126" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4465,7 +4459,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
         <v>98</v>
@@ -4474,16 +4468,16 @@
         <v>700</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G127" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I127" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4494,7 +4488,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
         <v>98</v>
@@ -4503,16 +4497,16 @@
         <v>700</v>
       </c>
       <c r="F128" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G128" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H128" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4523,7 +4517,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
         <v>98</v>
@@ -4532,16 +4526,16 @@
         <v>700</v>
       </c>
       <c r="F129" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G129" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I129" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4552,25 +4546,25 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
         <v>99</v>
       </c>
       <c r="E130">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4581,25 +4575,25 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
         <v>99</v>
       </c>
       <c r="E131">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F131" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G131" t="s">
         <v>129</v>
       </c>
       <c r="H131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4610,25 +4604,25 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
         <v>99</v>
       </c>
       <c r="E132">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G132" t="s">
         <v>129</v>
       </c>
       <c r="H132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4639,25 +4633,25 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
         <v>99</v>
       </c>
       <c r="E133">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G133" t="s">
         <v>129</v>
       </c>
       <c r="H133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4668,25 +4662,25 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
         <v>100</v>
       </c>
       <c r="E134">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F134" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G134" t="s">
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4703,19 +4697,19 @@
         <v>100</v>
       </c>
       <c r="E135">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G135" t="s">
         <v>133</v>
       </c>
       <c r="H135" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4726,25 +4720,25 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
         <v>100</v>
       </c>
       <c r="E136">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F136" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G136" t="s">
         <v>133</v>
       </c>
       <c r="H136" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4755,25 +4749,25 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
         <v>100</v>
       </c>
       <c r="E137">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F137" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G137" t="s">
         <v>133</v>
       </c>
       <c r="H137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4784,25 +4778,25 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
         <v>101</v>
       </c>
       <c r="E138">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F138" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G138" t="s">
         <v>129</v>
       </c>
       <c r="H138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I138" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4813,25 +4807,25 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
         <v>101</v>
       </c>
       <c r="E139">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G139" t="s">
         <v>129</v>
       </c>
       <c r="H139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4842,25 +4836,25 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
         <v>101</v>
       </c>
       <c r="E140">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F140" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G140" t="s">
         <v>129</v>
       </c>
       <c r="H140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4871,25 +4865,25 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
         <v>101</v>
       </c>
       <c r="E141">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F141" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G141" t="s">
         <v>129</v>
       </c>
       <c r="H141" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4900,25 +4894,25 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>102</v>
       </c>
       <c r="E142">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F142" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4929,25 +4923,25 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
         <v>102</v>
       </c>
       <c r="E143">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F143" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G143" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H143" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4958,25 +4952,25 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
         <v>102</v>
       </c>
       <c r="E144">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F144" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G144" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H144" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4987,25 +4981,25 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
         <v>102</v>
       </c>
       <c r="E145">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F145" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G145" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5016,25 +5010,25 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
         <v>103</v>
       </c>
       <c r="E146">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F146" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G146" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5045,25 +5039,25 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>103</v>
       </c>
       <c r="E147">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F147" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G147" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I147" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5074,25 +5068,25 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
         <v>103</v>
       </c>
       <c r="E148">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G148" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H148" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I148" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5103,25 +5097,25 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D149" t="s">
         <v>103</v>
       </c>
       <c r="E149">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F149" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G149" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I149" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5132,16 +5126,16 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
         <v>104</v>
       </c>
       <c r="E150">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F150" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G150" t="s">
         <v>129</v>
@@ -5150,7 +5144,7 @@
         <v>137</v>
       </c>
       <c r="I150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5161,16 +5155,16 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>104</v>
       </c>
       <c r="E151">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F151" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G151" t="s">
         <v>129</v>
@@ -5179,7 +5173,7 @@
         <v>137</v>
       </c>
       <c r="I151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5190,16 +5184,16 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
         <v>104</v>
       </c>
       <c r="E152">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F152" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G152" t="s">
         <v>129</v>
@@ -5208,7 +5202,7 @@
         <v>137</v>
       </c>
       <c r="I152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5219,16 +5213,16 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
         <v>104</v>
       </c>
       <c r="E153">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F153" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G153" t="s">
         <v>129</v>
@@ -5237,7 +5231,7 @@
         <v>137</v>
       </c>
       <c r="I153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5248,7 +5242,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
         <v>105</v>
@@ -5257,16 +5251,16 @@
         <v>600</v>
       </c>
       <c r="F154" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G154" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H154" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5277,7 +5271,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
         <v>105</v>
@@ -5286,16 +5280,16 @@
         <v>600</v>
       </c>
       <c r="F155" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G155" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H155" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I155" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5306,7 +5300,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D156" t="s">
         <v>105</v>
@@ -5315,16 +5309,16 @@
         <v>600</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G156" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H156" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I156" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5335,7 +5329,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
         <v>105</v>
@@ -5344,16 +5338,16 @@
         <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G157" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H157" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I157" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5370,19 +5364,19 @@
         <v>106</v>
       </c>
       <c r="E158">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F158" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G158" t="s">
         <v>129</v>
       </c>
       <c r="H158" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I158" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5393,25 +5387,25 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D159" t="s">
         <v>106</v>
       </c>
       <c r="E159">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F159" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G159" t="s">
         <v>129</v>
       </c>
       <c r="H159" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I159" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5422,25 +5416,25 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
         <v>106</v>
       </c>
       <c r="E160">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F160" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G160" t="s">
         <v>129</v>
       </c>
       <c r="H160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I160" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5451,25 +5445,25 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>106</v>
       </c>
       <c r="E161">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F161" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G161" t="s">
         <v>129</v>
       </c>
       <c r="H161" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I161" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5480,25 +5474,25 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
         <v>107</v>
       </c>
       <c r="E162">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F162" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G162" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I162" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5509,25 +5503,25 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
         <v>107</v>
       </c>
       <c r="E163">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F163" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G163" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H163" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I163" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5538,25 +5532,25 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
         <v>107</v>
       </c>
       <c r="E164">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F164" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G164" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H164" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I164" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5567,25 +5561,25 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
         <v>107</v>
       </c>
       <c r="E165">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F165" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G165" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H165" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I165" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5596,25 +5590,25 @@
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
         <v>108</v>
       </c>
       <c r="E166">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G166" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H166" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5625,25 +5619,25 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
         <v>108</v>
       </c>
       <c r="E167">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G167" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H167" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I167" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5654,25 +5648,25 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D168" t="s">
         <v>108</v>
       </c>
       <c r="E168">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F168" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G168" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H168" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I168" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5683,25 +5677,25 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>108</v>
       </c>
       <c r="E169">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F169" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G169" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H169" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5712,25 +5706,25 @@
         <v>0.5</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
         <v>109</v>
       </c>
       <c r="E170">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F170" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G170" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H170" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I170" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5741,25 +5735,25 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D171" t="s">
         <v>109</v>
       </c>
       <c r="E171">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F171" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G171" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H171" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I171" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5770,25 +5764,25 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
         <v>109</v>
       </c>
       <c r="E172">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F172" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G172" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H172" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5799,25 +5793,25 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
         <v>109</v>
       </c>
       <c r="E173">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F173" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G173" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H173" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I173" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5834,19 +5828,19 @@
         <v>110</v>
       </c>
       <c r="E174">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F174" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G174" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H174" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I174" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5857,25 +5851,25 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
         <v>110</v>
       </c>
       <c r="E175">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F175" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G175" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H175" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I175" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5886,25 +5880,25 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D176" t="s">
         <v>110</v>
       </c>
       <c r="E176">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F176" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H176" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I176" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5915,25 +5909,25 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
         <v>110</v>
       </c>
       <c r="E177">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F177" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G177" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H177" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I177" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5944,25 +5938,25 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
       </c>
       <c r="E178">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H178" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I178" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5979,19 +5973,19 @@
         <v>111</v>
       </c>
       <c r="E179">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F179" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G179" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H179" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I179" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6002,25 +5996,25 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D180" t="s">
         <v>111</v>
       </c>
       <c r="E180">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G180" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H180" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I180" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6031,25 +6025,25 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
         <v>111</v>
       </c>
       <c r="E181">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G181" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H181" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I181" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6060,25 +6054,25 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
         <v>112</v>
       </c>
       <c r="E182">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F182" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G182" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H182" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I182" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6089,25 +6083,25 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
         <v>112</v>
       </c>
       <c r="E183">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G183" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H183" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I183" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6118,25 +6112,25 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D184" t="s">
         <v>112</v>
       </c>
       <c r="E184">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F184" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G184" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H184" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I184" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6147,25 +6141,25 @@
         <v>0.9</v>
       </c>
       <c r="C185">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
         <v>112</v>
       </c>
       <c r="E185">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F185" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G185" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H185" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I185" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6176,25 +6170,25 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
         <v>113</v>
       </c>
       <c r="E186">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F186" t="s">
         <v>126</v>
       </c>
       <c r="G186" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H186" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I186" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6205,25 +6199,25 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
         <v>113</v>
       </c>
       <c r="E187">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F187" t="s">
         <v>126</v>
       </c>
       <c r="G187" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H187" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I187" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6234,25 +6228,25 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
         <v>113</v>
       </c>
       <c r="E188">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F188" t="s">
         <v>126</v>
       </c>
       <c r="G188" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H188" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I188" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6263,25 +6257,25 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
         <v>113</v>
       </c>
       <c r="E189">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F189" t="s">
         <v>126</v>
       </c>
       <c r="G189" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H189" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I189" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6292,16 +6286,16 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="s">
         <v>114</v>
       </c>
       <c r="E190">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F190" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G190" t="s">
         <v>129</v>
@@ -6310,7 +6304,7 @@
         <v>137</v>
       </c>
       <c r="I190" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6321,16 +6315,16 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
         <v>114</v>
       </c>
       <c r="E191">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F191" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G191" t="s">
         <v>129</v>
@@ -6339,7 +6333,7 @@
         <v>137</v>
       </c>
       <c r="I191" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6350,16 +6344,16 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
         <v>114</v>
       </c>
       <c r="E192">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F192" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G192" t="s">
         <v>129</v>
@@ -6368,7 +6362,7 @@
         <v>137</v>
       </c>
       <c r="I192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6379,16 +6373,16 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
         <v>114</v>
       </c>
       <c r="E193">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F193" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G193" t="s">
         <v>129</v>
@@ -6397,7 +6391,7 @@
         <v>137</v>
       </c>
       <c r="I193" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6414,7 +6408,7 @@
         <v>115</v>
       </c>
       <c r="E194">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F194" t="s">
         <v>125</v>
@@ -6423,10 +6417,10 @@
         <v>129</v>
       </c>
       <c r="H194" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6437,13 +6431,13 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
         <v>115</v>
       </c>
       <c r="E195">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F195" t="s">
         <v>125</v>
@@ -6452,10 +6446,10 @@
         <v>129</v>
       </c>
       <c r="H195" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I195" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6466,13 +6460,13 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
         <v>115</v>
       </c>
       <c r="E196">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F196" t="s">
         <v>125</v>
@@ -6481,10 +6475,10 @@
         <v>129</v>
       </c>
       <c r="H196" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I196" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6495,13 +6489,13 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
         <v>115</v>
       </c>
       <c r="E197">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F197" t="s">
         <v>125</v>
@@ -6510,10 +6504,10 @@
         <v>129</v>
       </c>
       <c r="H197" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6530,10 +6524,10 @@
         <v>116</v>
       </c>
       <c r="E198">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G198" t="s">
         <v>129</v>
@@ -6542,7 +6536,7 @@
         <v>137</v>
       </c>
       <c r="I198" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6553,16 +6547,16 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
       </c>
       <c r="E199">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F199" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G199" t="s">
         <v>129</v>
@@ -6571,7 +6565,7 @@
         <v>137</v>
       </c>
       <c r="I199" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6582,16 +6576,16 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D200" t="s">
         <v>116</v>
       </c>
       <c r="E200">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G200" t="s">
         <v>129</v>
@@ -6600,7 +6594,7 @@
         <v>137</v>
       </c>
       <c r="I200" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6611,16 +6605,16 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
         <v>116</v>
       </c>
       <c r="E201">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G201" t="s">
         <v>129</v>
@@ -6629,7 +6623,7 @@
         <v>137</v>
       </c>
       <c r="I201" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6640,25 +6634,25 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D202" t="s">
         <v>117</v>
       </c>
       <c r="E202">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F202" t="s">
         <v>126</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H202" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I202" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6669,25 +6663,25 @@
         <v>0.7</v>
       </c>
       <c r="C203">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
         <v>117</v>
       </c>
       <c r="E203">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F203" t="s">
         <v>126</v>
       </c>
       <c r="G203" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H203" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I203" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6698,25 +6692,25 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
         <v>117</v>
       </c>
       <c r="E204">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F204" t="s">
         <v>126</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H204" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I204" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6727,25 +6721,25 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D205" t="s">
         <v>117</v>
       </c>
       <c r="E205">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F205" t="s">
         <v>126</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H205" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I205" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6756,7 +6750,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
         <v>118</v>
@@ -6765,16 +6759,16 @@
         <v>700</v>
       </c>
       <c r="F206" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G206" t="s">
         <v>129</v>
       </c>
       <c r="H206" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I206" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6785,7 +6779,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D207" t="s">
         <v>118</v>
@@ -6794,16 +6788,16 @@
         <v>700</v>
       </c>
       <c r="F207" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G207" t="s">
         <v>129</v>
       </c>
       <c r="H207" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I207" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6814,7 +6808,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D208" t="s">
         <v>118</v>
@@ -6823,16 +6817,16 @@
         <v>700</v>
       </c>
       <c r="F208" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G208" t="s">
         <v>129</v>
       </c>
       <c r="H208" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I208" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6843,7 +6837,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D209" t="s">
         <v>118</v>
@@ -6852,16 +6846,16 @@
         <v>700</v>
       </c>
       <c r="F209" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G209" t="s">
         <v>129</v>
       </c>
       <c r="H209" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6872,25 +6866,25 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
         <v>119</v>
       </c>
       <c r="E210">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F210" t="s">
         <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H210" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I210" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6901,25 +6895,25 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D211" t="s">
         <v>119</v>
       </c>
       <c r="E211">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F211" t="s">
         <v>126</v>
       </c>
       <c r="G211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H211" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I211" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6930,25 +6924,25 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D212" t="s">
         <v>119</v>
       </c>
       <c r="E212">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F212" t="s">
         <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H212" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I212" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6959,25 +6953,25 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D213" t="s">
         <v>119</v>
       </c>
       <c r="E213">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F213" t="s">
         <v>126</v>
       </c>
       <c r="G213" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H213" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I213" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7003,10 +6997,10 @@
         <v>129</v>
       </c>
       <c r="H214" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I214" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7032,10 +7026,10 @@
         <v>129</v>
       </c>
       <c r="H215" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I215" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7046,7 +7040,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
         <v>120</v>
@@ -7061,10 +7055,10 @@
         <v>129</v>
       </c>
       <c r="H216" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I216" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7075,7 +7069,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D217" t="s">
         <v>120</v>
@@ -7090,10 +7084,10 @@
         <v>129</v>
       </c>
       <c r="H217" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I217" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7104,7 +7098,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
         <v>121</v>
@@ -7119,10 +7113,10 @@
         <v>131</v>
       </c>
       <c r="H218" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I218" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7133,7 +7127,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D219" t="s">
         <v>121</v>
@@ -7148,10 +7142,10 @@
         <v>131</v>
       </c>
       <c r="H219" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I219" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7162,7 +7156,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D220" t="s">
         <v>121</v>
@@ -7177,10 +7171,10 @@
         <v>131</v>
       </c>
       <c r="H220" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I220" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7191,7 +7185,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D221" t="s">
         <v>121</v>
@@ -7206,10 +7200,10 @@
         <v>131</v>
       </c>
       <c r="H221" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I221" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7220,7 +7214,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>122</v>
@@ -7232,13 +7226,13 @@
         <v>128</v>
       </c>
       <c r="G222" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H222" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I222" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7249,7 +7243,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223" t="s">
         <v>122</v>
@@ -7261,13 +7255,13 @@
         <v>128</v>
       </c>
       <c r="G223" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H223" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I223" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7278,7 +7272,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D224" t="s">
         <v>122</v>
@@ -7290,13 +7284,13 @@
         <v>128</v>
       </c>
       <c r="G224" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H224" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I224" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7319,13 +7313,13 @@
         <v>128</v>
       </c>
       <c r="G225" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H225" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I225" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7336,7 +7330,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
         <v>123</v>
@@ -7351,10 +7345,10 @@
         <v>130</v>
       </c>
       <c r="H226" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I226" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7365,7 +7359,7 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D227" t="s">
         <v>123</v>
@@ -7380,10 +7374,10 @@
         <v>130</v>
       </c>
       <c r="H227" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I227" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7394,7 +7388,7 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D228" t="s">
         <v>123</v>
@@ -7409,10 +7403,10 @@
         <v>130</v>
       </c>
       <c r="H228" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I228" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7423,7 +7417,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
         <v>123</v>
@@ -7438,10 +7432,10 @@
         <v>130</v>
       </c>
       <c r="H229" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I229" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7452,7 +7446,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
         <v>124</v>
@@ -7467,10 +7461,10 @@
         <v>129</v>
       </c>
       <c r="H230" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I230" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7481,7 +7475,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D231" t="s">
         <v>124</v>
@@ -7496,10 +7490,10 @@
         <v>129</v>
       </c>
       <c r="H231" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I231" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7510,7 +7504,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
         <v>124</v>
@@ -7525,10 +7519,10 @@
         <v>129</v>
       </c>
       <c r="H232" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I232" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7539,7 +7533,7 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D233" t="s">
         <v>124</v>
@@ -7554,10 +7548,10 @@
         <v>129</v>
       </c>
       <c r="H233" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I233" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
